--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>12.01</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.5999999999999996</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L13" t="n">
         <v>12.05</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>71.4285714285715</v>
+      </c>
       <c r="L14" t="n">
         <v>12.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>71.4285714285715</v>
+      </c>
       <c r="L15" t="n">
         <v>12.15</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>75.00000000000006</v>
+      </c>
       <c r="L16" t="n">
         <v>12.21</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>75.00000000000006</v>
+      </c>
       <c r="L17" t="n">
         <v>12.27</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L18" t="n">
         <v>12.33</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>42.857142857143</v>
+      </c>
       <c r="L19" t="n">
         <v>12.36</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>42.857142857143</v>
+      </c>
       <c r="L20" t="n">
         <v>12.39</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
       <c r="L21" t="n">
         <v>12.43</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>12.43</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K23" t="n">
-        <v>45.45454545454554</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>12.44</v>
@@ -1466,7 +1488,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K24" t="n">
-        <v>45.45454545454554</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>12.44</v>
@@ -1515,7 +1537,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>45.45454545454554</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>12.44</v>
@@ -1564,7 +1586,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>45.45454545454554</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>12.43</v>
@@ -1613,7 +1635,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>45.45454545454554</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>12.42</v>
@@ -1662,7 +1684,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>45.45454545454554</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>12.41</v>
@@ -1711,7 +1733,7 @@
         <v>1.199999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>20.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>12.4</v>
@@ -1760,7 +1782,7 @@
         <v>1.199999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>20.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L30" t="n">
         <v>12.39</v>
@@ -1809,7 +1831,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K31" t="n">
-        <v>27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>12.38</v>
@@ -1911,7 +1933,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>12.37</v>
@@ -1962,7 +1984,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>12.36</v>
@@ -2013,7 +2035,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>12.35</v>
@@ -2064,7 +2086,7 @@
         <v>1.599999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>-50.00000000000011</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L36" t="n">
         <v>12.32</v>
@@ -2115,7 +2137,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K37" t="n">
-        <v>-55.55555555555565</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L37" t="n">
         <v>12.28</v>
@@ -2166,7 +2188,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>-40.00000000000011</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L38" t="n">
         <v>12.25</v>
@@ -2217,7 +2239,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333346</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L39" t="n">
         <v>12.23</v>
@@ -2268,7 +2290,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K40" t="n">
-        <v>-45.45454545454554</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L40" t="n">
         <v>12.19</v>
@@ -2319,7 +2341,7 @@
         <v>2.099999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>-45.45454545454554</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L41" t="n">
         <v>12.15</v>
@@ -2370,7 +2392,7 @@
         <v>2.099999999999996</v>
       </c>
       <c r="K42" t="n">
-        <v>-40.00000000000011</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L42" t="n">
         <v>12.11</v>
@@ -2421,7 +2443,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>-27.27272727272739</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L43" t="n">
         <v>12.09</v>
@@ -2472,7 +2494,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>-27.27272727272739</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L44" t="n">
         <v>12.07</v>
@@ -2523,7 +2545,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>-27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>12.05</v>
@@ -2574,7 +2596,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>-27.27272727272739</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
         <v>12.05000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K47" t="n">
-        <v>-27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>12.06000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K48" t="n">
-        <v>-27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>12.06000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K49" t="n">
-        <v>-20.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>12.06000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K50" t="n">
-        <v>-20.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>12.08</v>
@@ -2829,7 +2851,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K51" t="n">
-        <v>-33.33333333333346</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>12.09</v>
@@ -2879,9 +2901,7 @@
       <c r="J52" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K52" t="n">
-        <v>-33.33333333333346</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>12.1</v>
       </c>
@@ -2930,9 +2950,7 @@
       <c r="J53" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K53" t="n">
-        <v>-25.00000000000017</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>12.1</v>
       </c>
@@ -2981,9 +2999,7 @@
       <c r="J54" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K54" t="n">
-        <v>-25.00000000000017</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>12.1</v>
       </c>
@@ -3032,9 +3048,7 @@
       <c r="J55" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K55" t="n">
-        <v>-25.00000000000017</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>12.1</v>
       </c>
@@ -3083,9 +3097,7 @@
       <c r="J56" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>12.1</v>
       </c>
@@ -3134,9 +3146,7 @@
       <c r="J57" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K57" t="n">
-        <v>20</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>12.1</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>2.299999999999995</v>
       </c>
       <c r="K58" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L58" t="n">
         <v>12.09</v>
@@ -3237,7 +3247,7 @@
         <v>2.399999999999995</v>
       </c>
       <c r="K59" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L59" t="n">
         <v>12.07</v>
@@ -3288,7 +3298,7 @@
         <v>2.399999999999995</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L60" t="n">
         <v>12.05000000000001</v>
@@ -3339,7 +3349,7 @@
         <v>2.499999999999995</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>12.04000000000001</v>
@@ -3390,7 +3400,7 @@
         <v>2.599999999999994</v>
       </c>
       <c r="K62" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L62" t="n">
         <v>12.02000000000001</v>
@@ -3645,7 +3655,7 @@
         <v>2.899999999999993</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>11.97000000000001</v>
@@ -3696,7 +3706,7 @@
         <v>2.899999999999993</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
         <v>11.97000000000001</v>
@@ -3747,7 +3757,7 @@
         <v>2.999999999999993</v>
       </c>
       <c r="K69" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>11.97000000000001</v>
@@ -3798,7 +3808,7 @@
         <v>3.099999999999993</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>11.98000000000001</v>
@@ -3849,7 +3859,7 @@
         <v>3.099999999999993</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>11.98000000000001</v>
@@ -3900,7 +3910,7 @@
         <v>3.199999999999992</v>
       </c>
       <c r="K72" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>11.98000000000001</v>
@@ -3951,7 +3961,7 @@
         <v>3.299999999999992</v>
       </c>
       <c r="K73" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>11.97000000000001</v>
@@ -4002,7 +4012,7 @@
         <v>3.299999999999992</v>
       </c>
       <c r="K74" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L74" t="n">
         <v>11.95000000000001</v>
@@ -4053,7 +4063,7 @@
         <v>3.299999999999992</v>
       </c>
       <c r="K75" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L75" t="n">
         <v>11.92000000000001</v>
@@ -4104,7 +4114,7 @@
         <v>3.299999999999992</v>
       </c>
       <c r="K76" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L76" t="n">
         <v>11.90000000000001</v>
@@ -4155,7 +4165,7 @@
         <v>3.399999999999993</v>
       </c>
       <c r="K77" t="n">
-        <v>-33.33333333333343</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L77" t="n">
         <v>11.87000000000001</v>
@@ -4206,7 +4216,7 @@
         <v>3.499999999999995</v>
       </c>
       <c r="K78" t="n">
-        <v>-16.66666666666662</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L78" t="n">
         <v>11.85000000000001</v>
@@ -4257,7 +4267,7 @@
         <v>3.499999999999995</v>
       </c>
       <c r="K79" t="n">
-        <v>-9.090909090909062</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L79" t="n">
         <v>11.84000000000001</v>
@@ -4308,7 +4318,7 @@
         <v>3.499999999999995</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.090909090909062</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L80" t="n">
         <v>11.82000000000002</v>
@@ -4359,7 +4369,7 @@
         <v>3.599999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>-27.27272727272731</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L81" t="n">
         <v>11.79000000000002</v>
@@ -4410,7 +4420,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K82" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>11.78000000000002</v>
@@ -4461,7 +4471,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>11.78000000000002</v>
@@ -4512,7 +4522,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>11.78000000000002</v>
@@ -4563,7 +4573,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>-33.33333333333307</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>11.78000000000002</v>
@@ -4614,7 +4624,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>-24.99999999999978</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>11.78000000000002</v>
@@ -4665,7 +4675,7 @@
         <v>3.799999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>-33.3333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>11.78000000000002</v>
@@ -4716,7 +4726,7 @@
         <v>3.9</v>
       </c>
       <c r="K88" t="n">
-        <v>-19.99999999999979</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>11.78000000000002</v>
@@ -4767,7 +4777,7 @@
         <v>3.9</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.11111111111098</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>11.78000000000002</v>
@@ -4818,7 +4828,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>-33.33333333333307</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>11.77000000000002</v>
@@ -4869,7 +4879,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>-33.33333333333307</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>11.77000000000002</v>
@@ -4920,7 +4930,7 @@
         <v>4.100000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>11.77000000000002</v>
@@ -5022,7 +5032,7 @@
         <v>4.200000000000005</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>11.76000000000002</v>
@@ -5073,7 +5083,7 @@
         <v>4.200000000000005</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>11.75000000000002</v>
@@ -5124,7 +5134,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>9.090909090908944</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L96" t="n">
         <v>11.76000000000002</v>
@@ -5175,7 +5185,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>19.99999999999986</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L97" t="n">
         <v>11.78000000000002</v>
@@ -5226,7 +5236,7 @@
         <v>4.500000000000005</v>
       </c>
       <c r="K98" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L98" t="n">
         <v>11.80000000000002</v>
@@ -5277,7 +5287,7 @@
         <v>4.500000000000005</v>
       </c>
       <c r="K99" t="n">
-        <v>19.99999999999972</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L99" t="n">
         <v>11.82000000000002</v>
@@ -5328,7 +5338,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K100" t="n">
-        <v>27.27272727272692</v>
+        <v>66.66666666666637</v>
       </c>
       <c r="L100" t="n">
         <v>11.86000000000002</v>
@@ -5379,7 +5389,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>45.45454545454511</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L101" t="n">
         <v>11.91000000000002</v>
@@ -5430,7 +5440,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>39.99999999999957</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L102" t="n">
         <v>11.95000000000002</v>
@@ -5481,7 +5491,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>11.99000000000002</v>
@@ -5532,7 +5542,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>12.04000000000002</v>
@@ -5583,7 +5593,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>12.09000000000002</v>
@@ -5634,7 +5644,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>27.27272727272701</v>
+        <v>50</v>
       </c>
       <c r="L106" t="n">
         <v>12.11000000000002</v>
@@ -5685,7 +5695,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>39.99999999999982</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>12.13000000000002</v>
@@ -5736,7 +5746,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333307</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>12.14000000000002</v>
@@ -5787,7 +5797,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>33.33333333333307</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>12.15000000000002</v>
@@ -5838,7 +5848,7 @@
         <v>4.900000000000004</v>
       </c>
       <c r="K110" t="n">
-        <v>55.55555555555542</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>12.16000000000002</v>
@@ -5889,7 +5899,7 @@
         <v>5.000000000000004</v>
       </c>
       <c r="K111" t="n">
-        <v>39.99999999999996</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>12.15000000000002</v>
@@ -5940,7 +5950,7 @@
         <v>5.100000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>19.99999999999993</v>
+        <v>-50</v>
       </c>
       <c r="L112" t="n">
         <v>12.13000000000002</v>
@@ -5991,7 +6001,7 @@
         <v>5.100000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>19.99999999999993</v>
+        <v>-50</v>
       </c>
       <c r="L113" t="n">
         <v>12.11000000000002</v>
@@ -6042,7 +6052,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>20.00000000000014</v>
+        <v>-60</v>
       </c>
       <c r="L114" t="n">
         <v>12.08000000000002</v>
@@ -6093,7 +6103,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>20.00000000000014</v>
+        <v>-50</v>
       </c>
       <c r="L115" t="n">
         <v>12.05000000000001</v>
@@ -6144,7 +6154,7 @@
         <v>5.300000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L116" t="n">
         <v>12.04000000000002</v>
@@ -6195,7 +6205,7 @@
         <v>5.300000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>12.03000000000002</v>
@@ -6246,7 +6256,7 @@
         <v>5.400000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>12.03000000000002</v>
@@ -6297,7 +6307,7 @@
         <v>5.400000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L119" t="n">
         <v>12.03000000000002</v>
@@ -6348,7 +6358,7 @@
         <v>5.500000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L120" t="n">
         <v>12.01000000000002</v>
@@ -6399,7 +6409,7 @@
         <v>5.500000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>12.00000000000002</v>
@@ -6450,7 +6460,7 @@
         <v>5.500000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>12.00000000000002</v>
@@ -6501,7 +6511,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>12.01000000000002</v>
@@ -6552,7 +6562,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L124" t="n">
         <v>12.03000000000002</v>
@@ -6603,7 +6613,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>12.05000000000002</v>
@@ -6654,7 +6664,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>12.06000000000002</v>
@@ -6705,7 +6715,7 @@
         <v>5.700000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>12.06000000000002</v>
@@ -6807,7 +6817,7 @@
         <v>5.800000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>12.06000000000002</v>
@@ -6858,7 +6868,7 @@
         <v>5.800000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>12.07000000000002</v>
@@ -6909,7 +6919,7 @@
         <v>5.9</v>
       </c>
       <c r="K131" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>12.07000000000002</v>
@@ -6960,7 +6970,7 @@
         <v>5.9</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>12.07000000000002</v>
@@ -7011,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="K133" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>12.07000000000002</v>
@@ -7062,7 +7072,7 @@
         <v>6</v>
       </c>
       <c r="K134" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>12.07000000000002</v>
@@ -7113,7 +7123,7 @@
         <v>6</v>
       </c>
       <c r="K135" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>12.07000000000002</v>
@@ -7164,7 +7174,7 @@
         <v>6</v>
       </c>
       <c r="K136" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>12.07000000000002</v>
@@ -7215,7 +7225,7 @@
         <v>6</v>
       </c>
       <c r="K137" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>12.08000000000002</v>
@@ -7266,7 +7276,7 @@
         <v>6.1</v>
       </c>
       <c r="K138" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>12.09000000000001</v>
@@ -7317,7 +7327,7 @@
         <v>6.1</v>
       </c>
       <c r="K139" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>12.10000000000001</v>
@@ -7368,7 +7378,7 @@
         <v>6.1</v>
       </c>
       <c r="K140" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L140" t="n">
         <v>12.11000000000001</v>
@@ -7419,7 +7429,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>12.12000000000001</v>
@@ -7470,7 +7480,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>12.13000000000001</v>
@@ -7521,7 +7531,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>12.14000000000001</v>
@@ -7572,7 +7582,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>12.15000000000001</v>
@@ -7623,7 +7633,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>12.16000000000001</v>
@@ -7674,7 +7684,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>12.17000000000001</v>
@@ -7725,7 +7735,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>12.18000000000001</v>
@@ -7776,7 +7786,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>12.18000000000001</v>
@@ -7827,7 +7837,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>12.18000000000001</v>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S149"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="K13" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="K14" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="K15" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7999999999999989</v>
-      </c>
-      <c r="K16" t="n">
-        <v>75.00000000000006</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7999999999999989</v>
-      </c>
-      <c r="K17" t="n">
-        <v>75.00000000000006</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7999999999999989</v>
-      </c>
-      <c r="K18" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="K19" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="K20" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>12.195</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>12.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>12.245</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>12.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>12.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>12.295</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>12.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>12.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>12.345</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>12.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.199999999999998</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.199999999999998</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L30" t="n">
-        <v>12.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>12.405</v>
-      </c>
-      <c r="N31" t="n">
-        <v>12.25666666666666</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>12.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>12.405</v>
-      </c>
-      <c r="N32" t="n">
-        <v>12.27333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.399999999999997</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>12.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>12.405</v>
-      </c>
-      <c r="N33" t="n">
-        <v>12.28666666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.399999999999997</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L34" t="n">
-        <v>12.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="N34" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.399999999999997</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L35" t="n">
-        <v>12.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>12.395</v>
-      </c>
-      <c r="N35" t="n">
-        <v>12.31333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.599999999999998</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L36" t="n">
-        <v>12.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>12.375</v>
-      </c>
-      <c r="N36" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.699999999999998</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-66.66666666666676</v>
-      </c>
-      <c r="L37" t="n">
-        <v>12.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="N37" t="n">
-        <v>12.32333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L38" t="n">
-        <v>12.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="N38" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L39" t="n">
-        <v>12.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>12.315</v>
-      </c>
-      <c r="N39" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,26 +1786,10 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1.999999999999996</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-71.4285714285715</v>
-      </c>
-      <c r="L40" t="n">
-        <v>12.19</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="N40" t="n">
-        <v>12.32333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.099999999999996</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-50.00000000000011</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>12.265</v>
-      </c>
-      <c r="N41" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.099999999999996</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-42.857142857143</v>
-      </c>
-      <c r="L42" t="n">
-        <v>12.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>12.245</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12.30666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-25.00000000000017</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="N43" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-25.00000000000017</v>
-      </c>
-      <c r="L44" t="n">
-        <v>12.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>12.215</v>
-      </c>
-      <c r="N44" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>12.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K46" t="n">
-        <v>20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>12.05000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>12.185</v>
-      </c>
-      <c r="N46" t="n">
-        <v>12.26666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>12.06000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>12.16999999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>12.25333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>12.06000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>12.15499999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>12.24000000000001</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K49" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>12.06000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>12.14499999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>12.23000000000001</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K50" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>12.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>12.13499999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>12.22000000000001</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>12.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>12.11999999999999</v>
-      </c>
-      <c r="N51" t="n">
-        <v>12.20666666666668</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,26 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.199999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>12.10499999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>12.19666666666668</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,26 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.199999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>12.09499999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>12.18666666666668</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,26 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.199999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>12.08499999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>12.17666666666668</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,26 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.199999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>12.16666666666668</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,26 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.199999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12.15666666666669</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3141,26 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.199999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>12.07999999999999</v>
-      </c>
-      <c r="N57" t="n">
-        <v>12.14666666666669</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.299999999999995</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L58" t="n">
-        <v>12.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="N58" t="n">
-        <v>12.13333333333335</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3243,26 +2451,10 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>2.399999999999995</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>12.07</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>12.06499999999999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>12.12000000000002</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,26 +2486,10 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>2.399999999999995</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L60" t="n">
-        <v>12.05000000000001</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>12.06499999999999</v>
-      </c>
-      <c r="N60" t="n">
-        <v>12.10666666666669</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3343,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.499999999999995</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L61" t="n">
-        <v>12.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>12.06499999999999</v>
-      </c>
-      <c r="N61" t="n">
-        <v>12.09333333333335</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,26 +2556,10 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L62" t="n">
-        <v>12.02000000000001</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>12.05999999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>12.07666666666669</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3447,26 +2591,10 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L63" t="n">
-        <v>12.00000000000001</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>12.04999999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>12.06333333333335</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.699999999999994</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L64" t="n">
-        <v>11.99000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>12.04499999999999</v>
-      </c>
-      <c r="N64" t="n">
-        <v>12.05333333333335</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.799999999999994</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>11.99000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>12.04499999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>12.04666666666668</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.899999999999993</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L66" t="n">
-        <v>11.98000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>12.03999999999999</v>
-      </c>
-      <c r="N66" t="n">
-        <v>12.04333333333335</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.899999999999993</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>11.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>12.03499999999999</v>
-      </c>
-      <c r="N67" t="n">
-        <v>12.04333333333335</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.899999999999993</v>
-      </c>
-      <c r="K68" t="n">
-        <v>20</v>
-      </c>
-      <c r="L68" t="n">
-        <v>11.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>12.02999999999999</v>
-      </c>
-      <c r="N68" t="n">
-        <v>12.04000000000002</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,26 +2801,10 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>2.999999999999993</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>11.97000000000001</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>12.01999999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>12.03333333333335</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.099999999999993</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>11.98000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>12.01499999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>12.03666666666668</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.099999999999993</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20</v>
-      </c>
-      <c r="L71" t="n">
-        <v>11.98000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>12.00999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>12.03666666666668</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,26 +2906,10 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.199999999999992</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>11.98000000000001</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>11.99999999999999</v>
-      </c>
-      <c r="N72" t="n">
-        <v>12.03333333333335</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3955,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.299999999999992</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>11.98499999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>12.02333333333335</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.299999999999992</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L74" t="n">
-        <v>11.95000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="N74" t="n">
-        <v>12.01333333333335</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4057,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.299999999999992</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L75" t="n">
-        <v>11.92000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>11.95499999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>12.00333333333335</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.299999999999992</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L76" t="n">
-        <v>11.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="N76" t="n">
-        <v>11.99333333333335</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.399999999999993</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L77" t="n">
-        <v>11.87000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="N77" t="n">
-        <v>11.98000000000001</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.499999999999995</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L78" t="n">
-        <v>11.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="N78" t="n">
-        <v>11.97000000000001</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4261,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.499999999999995</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L79" t="n">
-        <v>11.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>11.905</v>
-      </c>
-      <c r="N79" t="n">
-        <v>11.96000000000001</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.499999999999995</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L80" t="n">
-        <v>11.82000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N80" t="n">
-        <v>11.95000000000001</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4363,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.599999999999996</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-49.99999999999978</v>
-      </c>
-      <c r="L81" t="n">
-        <v>11.79000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>11.885</v>
-      </c>
-      <c r="N81" t="n">
-        <v>11.93666666666668</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.699999999999998</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>11.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="N82" t="n">
-        <v>11.92666666666668</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4465,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.699999999999998</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>11.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>11.875</v>
-      </c>
-      <c r="N83" t="n">
-        <v>11.91666666666668</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4516,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.699999999999998</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>11.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>11.865</v>
-      </c>
-      <c r="N84" t="n">
-        <v>11.90666666666668</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4567,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.699999999999998</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>11.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="N85" t="n">
-        <v>11.89666666666668</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.699999999999998</v>
-      </c>
-      <c r="K86" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>11.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="N86" t="n">
-        <v>11.88666666666668</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.799999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>11.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>11.825</v>
-      </c>
-      <c r="N87" t="n">
-        <v>11.87333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>11.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>11.815</v>
-      </c>
-      <c r="N88" t="n">
-        <v>11.86666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,31 +3496,21 @@
         <v>11.99166666666664</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>11.78000000000002</v>
+        <v>11.7</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="N89" t="n">
-        <v>11.86333333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,31 +3537,21 @@
         <v>11.98166666666664</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>4.000000000000002</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>11.77000000000002</v>
+        <v>11.7</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>11.795</v>
-      </c>
-      <c r="N90" t="n">
-        <v>11.85666666666668</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,31 +3578,21 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>4.000000000000002</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>11.77000000000002</v>
+        <v>11.7</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="N91" t="n">
-        <v>11.84666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4921,31 +3619,21 @@
         <v>11.95999999999998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>4.100000000000003</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>11.77000000000002</v>
+        <v>11.8</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>11.775</v>
-      </c>
-      <c r="N92" t="n">
-        <v>11.84333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,31 +3660,21 @@
         <v>11.95166666666664</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>4.100000000000003</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>11.77000000000002</v>
+        <v>11.8</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>11.775</v>
-      </c>
-      <c r="N93" t="n">
-        <v>11.84000000000001</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5023,31 +3701,21 @@
         <v>11.94166666666665</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>4.200000000000005</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L94" t="n">
-        <v>11.76000000000002</v>
+        <v>11.7</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="N94" t="n">
-        <v>11.83000000000001</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,31 +3742,21 @@
         <v>11.93166666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>4.200000000000005</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L95" t="n">
-        <v>11.75000000000002</v>
+        <v>11.7</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>11.765</v>
-      </c>
-      <c r="N95" t="n">
-        <v>11.81666666666668</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5125,31 +3783,21 @@
         <v>11.92833333333331</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="K96" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L96" t="n">
-        <v>11.76000000000002</v>
+        <v>11.8</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="N96" t="n">
-        <v>11.81333333333334</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,31 +3824,21 @@
         <v>11.92666666666665</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="K97" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L97" t="n">
-        <v>11.78000000000002</v>
+        <v>11.9</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="N97" t="n">
-        <v>11.81000000000001</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,31 +3865,21 @@
         <v>11.92499999999998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.500000000000005</v>
-      </c>
-      <c r="K98" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L98" t="n">
-        <v>11.80000000000002</v>
+        <v>12</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="N98" t="n">
-        <v>11.81000000000001</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,31 +3906,21 @@
         <v>11.92333333333331</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.500000000000005</v>
-      </c>
-      <c r="K99" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L99" t="n">
-        <v>11.82000000000002</v>
+        <v>12</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N99" t="n">
-        <v>11.81333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,28 +3950,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J100" t="n">
-        <v>4.600000000000005</v>
-      </c>
-      <c r="K100" t="n">
-        <v>66.66666666666637</v>
-      </c>
-      <c r="L100" t="n">
-        <v>11.86000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>11.81499999999999</v>
-      </c>
-      <c r="N100" t="n">
-        <v>11.81666666666668</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,28 +3989,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J101" t="n">
-        <v>4.700000000000005</v>
-      </c>
-      <c r="K101" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L101" t="n">
-        <v>11.91000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>11.83999999999999</v>
-      </c>
-      <c r="N101" t="n">
-        <v>11.82333333333334</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,28 +4028,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4.700000000000005</v>
-      </c>
-      <c r="K102" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L102" t="n">
-        <v>11.95000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>11.85999999999999</v>
-      </c>
-      <c r="N102" t="n">
-        <v>11.83333333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,28 +4067,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J103" t="n">
-        <v>4.700000000000005</v>
-      </c>
-      <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="n">
-        <v>11.99000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>11.87999999999999</v>
-      </c>
-      <c r="N103" t="n">
-        <v>11.84666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,28 +4106,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4.700000000000005</v>
-      </c>
-      <c r="K104" t="n">
-        <v>100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>12.04000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>11.89999999999999</v>
-      </c>
-      <c r="N104" t="n">
-        <v>11.86000000000001</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,28 +4145,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J105" t="n">
-        <v>4.700000000000005</v>
-      </c>
-      <c r="K105" t="n">
-        <v>100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>12.09000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>11.91999999999999</v>
-      </c>
-      <c r="N105" t="n">
-        <v>11.87333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,28 +4184,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J106" t="n">
-        <v>4.800000000000004</v>
-      </c>
-      <c r="K106" t="n">
-        <v>50</v>
-      </c>
-      <c r="L106" t="n">
-        <v>12.11000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>11.93499999999999</v>
-      </c>
-      <c r="N106" t="n">
-        <v>11.88333333333334</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5689,28 +4223,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J107" t="n">
-        <v>4.800000000000004</v>
-      </c>
-      <c r="K107" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L107" t="n">
-        <v>12.13000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>11.95499999999999</v>
-      </c>
-      <c r="N107" t="n">
-        <v>11.89666666666668</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,28 +4262,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J108" t="n">
-        <v>4.800000000000004</v>
-      </c>
-      <c r="K108" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>12.14000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>11.96999999999999</v>
-      </c>
-      <c r="N108" t="n">
-        <v>11.90666666666668</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5791,30 +4301,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J109" t="n">
-        <v>4.800000000000004</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>12.15000000000002</v>
-      </c>
-      <c r="M109" t="n">
-        <v>11.98499999999999</v>
-      </c>
-      <c r="N109" t="n">
-        <v>11.91666666666668</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5842,28 +4338,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4.900000000000004</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12.16000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>12.00999999999999</v>
-      </c>
-      <c r="N110" t="n">
-        <v>11.93000000000001</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,28 +4373,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5.000000000000004</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L111" t="n">
-        <v>12.15000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>12.02999999999999</v>
-      </c>
-      <c r="N111" t="n">
-        <v>11.94333333333334</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,28 +4408,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5.100000000000003</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12.13000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>12.03999999999999</v>
-      </c>
-      <c r="N112" t="n">
-        <v>11.95000000000001</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5995,28 +4443,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5.100000000000003</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L113" t="n">
-        <v>12.11000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>12.04999999999999</v>
-      </c>
-      <c r="N113" t="n">
-        <v>11.95666666666668</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,26 +4480,10 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12.08000000000002</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>12.05999999999999</v>
-      </c>
-      <c r="N114" t="n">
-        <v>11.96000000000001</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6097,28 +4513,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L115" t="n">
-        <v>12.05000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>12.06999999999999</v>
-      </c>
-      <c r="N115" t="n">
-        <v>11.96333333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,28 +4548,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5.300000000000002</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12.04000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="N116" t="n">
-        <v>11.97000000000001</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6199,28 +4583,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5.300000000000002</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L117" t="n">
-        <v>12.03000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>12.07999999999999</v>
-      </c>
-      <c r="N117" t="n">
-        <v>11.98000000000001</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,28 +4618,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5.400000000000002</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>12.03000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>12.08499999999999</v>
-      </c>
-      <c r="N118" t="n">
-        <v>11.99000000000001</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6301,28 +4653,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5.400000000000002</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L119" t="n">
-        <v>12.03000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>12.08999999999999</v>
-      </c>
-      <c r="N119" t="n">
-        <v>12.00000000000001</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6352,28 +4688,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J120" t="n">
-        <v>5.500000000000002</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L120" t="n">
-        <v>12.01000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>12.08499999999999</v>
-      </c>
-      <c r="N120" t="n">
-        <v>12.01000000000001</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6403,28 +4723,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J121" t="n">
-        <v>5.500000000000002</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>12.00000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="N121" t="n">
-        <v>12.02000000000001</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,28 +4758,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5.500000000000002</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>12.00000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>12.06499999999999</v>
-      </c>
-      <c r="N122" t="n">
-        <v>12.02666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6505,28 +4793,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J123" t="n">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="K123" t="n">
-        <v>50</v>
-      </c>
-      <c r="L123" t="n">
-        <v>12.01000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>12.05999999999999</v>
-      </c>
-      <c r="N123" t="n">
-        <v>12.03666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,28 +4828,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="K124" t="n">
-        <v>50</v>
-      </c>
-      <c r="L124" t="n">
-        <v>12.03000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>12.05499999999999</v>
-      </c>
-      <c r="N124" t="n">
-        <v>12.05000000000001</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,28 +4863,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J125" t="n">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="K125" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L125" t="n">
-        <v>12.05000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>12.04999999999999</v>
-      </c>
-      <c r="N125" t="n">
-        <v>12.06333333333334</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6658,28 +4898,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="K126" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>12.06000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>12.04999999999999</v>
-      </c>
-      <c r="N126" t="n">
-        <v>12.07000000000001</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6709,28 +4933,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5.700000000000001</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L127" t="n">
-        <v>12.06000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>12.04499999999999</v>
-      </c>
-      <c r="N127" t="n">
-        <v>12.07333333333335</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6760,1099 +4968,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>12.06000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>12.04499999999999</v>
-      </c>
-      <c r="N128" t="n">
-        <v>12.07666666666668</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>73000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>11.94666666666665</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="K129" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L129" t="n">
-        <v>12.06000000000002</v>
-      </c>
-      <c r="M129" t="n">
-        <v>12.04499999999999</v>
-      </c>
-      <c r="N129" t="n">
-        <v>12.08000000000001</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>16400</v>
-      </c>
-      <c r="G130" t="n">
-        <v>11.94833333333332</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="K130" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L130" t="n">
-        <v>12.07000000000002</v>
-      </c>
-      <c r="M130" t="n">
-        <v>12.03999999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>12.08000000000001</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4055.0969</v>
-      </c>
-      <c r="G131" t="n">
-        <v>11.94833333333332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J131" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>12.07000000000002</v>
-      </c>
-      <c r="M131" t="n">
-        <v>12.03499999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>12.07333333333335</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12</v>
-      </c>
-      <c r="F132" t="n">
-        <v>4050</v>
-      </c>
-      <c r="G132" t="n">
-        <v>11.94999999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L132" t="n">
-        <v>12.07000000000002</v>
-      </c>
-      <c r="M132" t="n">
-        <v>12.03499999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>12.06666666666668</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>25596</v>
-      </c>
-      <c r="G133" t="n">
-        <v>11.95499999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J133" t="n">
-        <v>6</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>12.07000000000002</v>
-      </c>
-      <c r="M133" t="n">
-        <v>12.03999999999999</v>
-      </c>
-      <c r="N133" t="n">
-        <v>12.06333333333335</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>252</v>
-      </c>
-      <c r="G134" t="n">
-        <v>11.95999999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J134" t="n">
-        <v>6</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>12.07000000000002</v>
-      </c>
-      <c r="M134" t="n">
-        <v>12.04999999999999</v>
-      </c>
-      <c r="N134" t="n">
-        <v>12.06000000000002</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>28200</v>
-      </c>
-      <c r="G135" t="n">
-        <v>11.96499999999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J135" t="n">
-        <v>6</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>12.07000000000002</v>
-      </c>
-      <c r="M135" t="n">
-        <v>12.05999999999999</v>
-      </c>
-      <c r="N135" t="n">
-        <v>12.05666666666668</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F136" t="n">
-        <v>249</v>
-      </c>
-      <c r="G136" t="n">
-        <v>11.96999999999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J136" t="n">
-        <v>6</v>
-      </c>
-      <c r="K136" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L136" t="n">
-        <v>12.07000000000002</v>
-      </c>
-      <c r="M136" t="n">
-        <v>12.06499999999999</v>
-      </c>
-      <c r="N136" t="n">
-        <v>12.05666666666668</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>54315.1284</v>
-      </c>
-      <c r="G137" t="n">
-        <v>11.97666666666666</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J137" t="n">
-        <v>6</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>12.08000000000002</v>
-      </c>
-      <c r="M137" t="n">
-        <v>12.06999999999999</v>
-      </c>
-      <c r="N137" t="n">
-        <v>12.05666666666668</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1878.7213</v>
-      </c>
-      <c r="G138" t="n">
-        <v>11.98333333333332</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J138" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K138" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L138" t="n">
-        <v>12.09000000000001</v>
-      </c>
-      <c r="M138" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="N138" t="n">
-        <v>12.06000000000002</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>158774.0139</v>
-      </c>
-      <c r="G139" t="n">
-        <v>11.98999999999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J139" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K139" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L139" t="n">
-        <v>12.10000000000001</v>
-      </c>
-      <c r="M139" t="n">
-        <v>12.07999999999999</v>
-      </c>
-      <c r="N139" t="n">
-        <v>12.06333333333335</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>159081.9632</v>
-      </c>
-      <c r="G140" t="n">
-        <v>11.99666666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J140" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K140" t="n">
-        <v>100</v>
-      </c>
-      <c r="L140" t="n">
-        <v>12.11000000000001</v>
-      </c>
-      <c r="M140" t="n">
-        <v>12.08999999999999</v>
-      </c>
-      <c r="N140" t="n">
-        <v>12.06333333333335</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>15272.3887</v>
-      </c>
-      <c r="G141" t="n">
-        <v>12.00333333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J141" t="n">
-        <v>6.199999999999999</v>
-      </c>
-      <c r="K141" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L141" t="n">
-        <v>12.12000000000001</v>
-      </c>
-      <c r="M141" t="n">
-        <v>12.09499999999999</v>
-      </c>
-      <c r="N141" t="n">
-        <v>12.06333333333335</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3280</v>
-      </c>
-      <c r="G142" t="n">
-        <v>12.00833333333333</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J142" t="n">
-        <v>6.199999999999999</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>12.13000000000001</v>
-      </c>
-      <c r="M142" t="n">
-        <v>12.09999999999999</v>
-      </c>
-      <c r="N142" t="n">
-        <v>12.06666666666668</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>7550</v>
-      </c>
-      <c r="G143" t="n">
-        <v>12.015</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J143" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K143" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L143" t="n">
-        <v>12.14000000000001</v>
-      </c>
-      <c r="M143" t="n">
-        <v>12.10499999999999</v>
-      </c>
-      <c r="N143" t="n">
-        <v>12.07333333333335</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F144" t="n">
-        <v>15100</v>
-      </c>
-      <c r="G144" t="n">
-        <v>12.02166666666666</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J144" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K144" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L144" t="n">
-        <v>12.15000000000001</v>
-      </c>
-      <c r="M144" t="n">
-        <v>12.10999999999999</v>
-      </c>
-      <c r="N144" t="n">
-        <v>12.08333333333335</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>16130</v>
-      </c>
-      <c r="G145" t="n">
-        <v>12.02833333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J145" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K145" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L145" t="n">
-        <v>12.16000000000001</v>
-      </c>
-      <c r="M145" t="n">
-        <v>12.11499999999999</v>
-      </c>
-      <c r="N145" t="n">
-        <v>12.09333333333335</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2860</v>
-      </c>
-      <c r="G146" t="n">
-        <v>12.035</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J146" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K146" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L146" t="n">
-        <v>12.17000000000001</v>
-      </c>
-      <c r="M146" t="n">
-        <v>12.11999999999999</v>
-      </c>
-      <c r="N146" t="n">
-        <v>12.10000000000002</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2860</v>
-      </c>
-      <c r="G147" t="n">
-        <v>12.04333333333333</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J147" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>12.18000000000001</v>
-      </c>
-      <c r="M147" t="n">
-        <v>12.12999999999998</v>
-      </c>
-      <c r="N147" t="n">
-        <v>12.10666666666668</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>4290</v>
-      </c>
-      <c r="G148" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J148" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>12.18000000000001</v>
-      </c>
-      <c r="M148" t="n">
-        <v>12.13499999999999</v>
-      </c>
-      <c r="N148" t="n">
-        <v>12.11000000000002</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>8580</v>
-      </c>
-      <c r="G149" t="n">
-        <v>12.05666666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J149" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>12.18000000000001</v>
-      </c>
-      <c r="M149" t="n">
-        <v>12.13999999999998</v>
-      </c>
-      <c r="N149" t="n">
-        <v>12.11333333333335</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -3251,13 +3251,17 @@
         <v>12.06166666666664</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K82" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3286,14 +3290,22 @@
         <v>12.05166666666664</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3339,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3496,20 +3514,14 @@
         <v>11.99166666666664</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,20 +3549,14 @@
         <v>11.98166666666664</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3578,20 +3584,14 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3619,20 +3619,14 @@
         <v>11.95999999999998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3660,20 +3654,14 @@
         <v>11.95166666666664</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3701,20 +3689,14 @@
         <v>11.94166666666665</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3742,20 +3724,14 @@
         <v>11.93166666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3783,20 +3759,14 @@
         <v>11.92833333333331</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3824,20 +3794,14 @@
         <v>11.92666666666665</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3865,20 +3829,14 @@
         <v>11.92499999999998</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>12</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3906,20 +3864,14 @@
         <v>11.92333333333331</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>12</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +3906,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3993,11 +3941,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4032,11 +3976,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +4011,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4110,11 +4046,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4149,11 +4081,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4188,11 +4116,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +4151,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4266,11 +4186,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4301,16 +4217,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4373,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4513,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4653,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4723,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4793,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4863,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4933,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,13 @@
         <v>11.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2745.7818</v>
+        <v>3482.6087</v>
       </c>
       <c r="G2" t="n">
-        <v>12.10500000000001</v>
+        <v>12.10666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -480,19 +480,23 @@
         <v>11.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1129.9435</v>
+        <v>2745.7818</v>
       </c>
       <c r="G3" t="n">
-        <v>12.10333333333334</v>
+        <v>12.10500000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -515,20 +519,28 @@
         <v>11.9</v>
       </c>
       <c r="F4" t="n">
-        <v>9088.9107</v>
+        <v>1129.9435</v>
       </c>
       <c r="G4" t="n">
-        <v>12.1</v>
+        <v>12.10333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,20 +562,28 @@
         <v>11.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1739.1304</v>
+        <v>9088.9107</v>
       </c>
       <c r="G5" t="n">
-        <v>12.09833333333334</v>
+        <v>12.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,10 +605,10 @@
         <v>11.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1554.715</v>
+        <v>1739.1304</v>
       </c>
       <c r="G6" t="n">
-        <v>12.095</v>
+        <v>12.09833333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +640,10 @@
         <v>11.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1733.572</v>
+        <v>1554.715</v>
       </c>
       <c r="G7" t="n">
-        <v>12.09</v>
+        <v>12.095</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +675,10 @@
         <v>11.9</v>
       </c>
       <c r="F8" t="n">
-        <v>7604.1548</v>
+        <v>1733.572</v>
       </c>
       <c r="G8" t="n">
-        <v>12.085</v>
+        <v>12.09</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +698,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>112008.683</v>
+        <v>7604.1548</v>
       </c>
       <c r="G9" t="n">
-        <v>12.08333333333333</v>
+        <v>12.085</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +733,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C10" t="n">
         <v>12.1</v>
       </c>
       <c r="D10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E10" t="n">
         <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>47768.8099</v>
+        <v>112008.683</v>
       </c>
       <c r="G10" t="n">
-        <v>12.08166666666667</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +768,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C11" t="n">
         <v>12.1</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E11" t="n">
         <v>12.1</v>
       </c>
       <c r="F11" t="n">
-        <v>25264.9738</v>
+        <v>47768.8099</v>
       </c>
       <c r="G11" t="n">
-        <v>12.08</v>
+        <v>12.08166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +803,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>70700.73239999999</v>
+        <v>25264.9738</v>
       </c>
       <c r="G12" t="n">
-        <v>12.08333333333333</v>
+        <v>12.08</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D13" t="n">
         <v>12.4</v>
       </c>
       <c r="E13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F13" t="n">
-        <v>235617.2999</v>
+        <v>70700.73239999999</v>
       </c>
       <c r="G13" t="n">
-        <v>12.085</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D14" t="n">
         <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F14" t="n">
-        <v>55027.5522</v>
+        <v>235617.2999</v>
       </c>
       <c r="G14" t="n">
-        <v>12.08833333333333</v>
+        <v>12.085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,16 +914,16 @@
         <v>12.4</v>
       </c>
       <c r="D15" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E15" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F15" t="n">
-        <v>90357.24980000001</v>
+        <v>55027.5522</v>
       </c>
       <c r="G15" t="n">
-        <v>12.09333333333333</v>
+        <v>12.08833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +943,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D16" t="n">
         <v>12.5</v>
       </c>
       <c r="E16" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F16" t="n">
-        <v>48800</v>
+        <v>90357.24980000001</v>
       </c>
       <c r="G16" t="n">
-        <v>12.09999999999999</v>
+        <v>12.09333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,16 +990,16 @@
         <v>12.5</v>
       </c>
       <c r="F17" t="n">
-        <v>33539.0294</v>
+        <v>48800</v>
       </c>
       <c r="G17" t="n">
-        <v>12.10499999999999</v>
+        <v>12.09999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1005,16 +1025,16 @@
         <v>12.5</v>
       </c>
       <c r="F18" t="n">
-        <v>41546.443</v>
+        <v>33539.0294</v>
       </c>
       <c r="G18" t="n">
-        <v>12.10833333333333</v>
+        <v>12.10499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1031,19 +1051,19 @@
         <v>12.5</v>
       </c>
       <c r="C19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D19" t="n">
         <v>12.5</v>
       </c>
       <c r="E19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F19" t="n">
-        <v>9802.4967</v>
+        <v>41546.443</v>
       </c>
       <c r="G19" t="n">
-        <v>12.11333333333333</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1083,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C20" t="n">
         <v>12.4</v>
       </c>
       <c r="D20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E20" t="n">
         <v>12.4</v>
       </c>
       <c r="F20" t="n">
-        <v>11682.1209</v>
+        <v>9802.4967</v>
       </c>
       <c r="G20" t="n">
-        <v>12.11833333333333</v>
+        <v>12.11333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,28 +1118,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F21" t="n">
-        <v>81130.50750000001</v>
+        <v>11682.1209</v>
       </c>
       <c r="G21" t="n">
-        <v>12.12499999999999</v>
+        <v>12.11833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1133,22 +1153,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F22" t="n">
-        <v>84079.7335</v>
+        <v>81130.50750000001</v>
       </c>
       <c r="G22" t="n">
-        <v>12.12833333333332</v>
+        <v>12.12499999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1200,10 @@
         <v>12.4</v>
       </c>
       <c r="F23" t="n">
-        <v>33400</v>
+        <v>84079.7335</v>
       </c>
       <c r="G23" t="n">
-        <v>12.13333333333332</v>
+        <v>12.12833333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1235,10 @@
         <v>12.4</v>
       </c>
       <c r="F24" t="n">
-        <v>28842.8294</v>
+        <v>33400</v>
       </c>
       <c r="G24" t="n">
-        <v>12.13833333333332</v>
+        <v>12.13333333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1270,10 @@
         <v>12.4</v>
       </c>
       <c r="F25" t="n">
-        <v>33450</v>
+        <v>28842.8294</v>
       </c>
       <c r="G25" t="n">
-        <v>12.14333333333332</v>
+        <v>12.13833333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1305,10 @@
         <v>12.4</v>
       </c>
       <c r="F26" t="n">
-        <v>33460</v>
+        <v>33450</v>
       </c>
       <c r="G26" t="n">
-        <v>12.14833333333332</v>
+        <v>12.14333333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1340,10 @@
         <v>12.4</v>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>33460</v>
       </c>
       <c r="G27" t="n">
-        <v>12.15333333333332</v>
+        <v>12.14833333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1375,10 @@
         <v>12.4</v>
       </c>
       <c r="F28" t="n">
-        <v>31704.6774</v>
+        <v>200</v>
       </c>
       <c r="G28" t="n">
-        <v>12.15833333333332</v>
+        <v>12.15333333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1398,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F29" t="n">
-        <v>71962.439</v>
+        <v>31704.6774</v>
       </c>
       <c r="G29" t="n">
-        <v>12.16166666666665</v>
+        <v>12.15833333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1445,10 @@
         <v>12.3</v>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>71962.439</v>
       </c>
       <c r="G30" t="n">
-        <v>12.16499999999998</v>
+        <v>12.16166666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1471,19 @@
         <v>12.3</v>
       </c>
       <c r="C31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E31" t="n">
         <v>12.3</v>
       </c>
       <c r="F31" t="n">
-        <v>4587.561</v>
+        <v>250</v>
       </c>
       <c r="G31" t="n">
-        <v>12.16833333333332</v>
+        <v>12.16499999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C32" t="n">
         <v>12.4</v>
@@ -1492,13 +1512,13 @@
         <v>12.4</v>
       </c>
       <c r="E32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1500</v>
+        <v>4587.561</v>
       </c>
       <c r="G32" t="n">
-        <v>12.17166666666665</v>
+        <v>12.16833333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1541,19 @@
         <v>12.4</v>
       </c>
       <c r="C33" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D33" t="n">
         <v>12.4</v>
       </c>
       <c r="E33" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F33" t="n">
-        <v>30100</v>
+        <v>1500</v>
       </c>
       <c r="G33" t="n">
-        <v>12.17333333333331</v>
+        <v>12.17166666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1573,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C34" t="n">
         <v>12.3</v>
       </c>
       <c r="D34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E34" t="n">
         <v>12.3</v>
       </c>
       <c r="F34" t="n">
-        <v>243.9024</v>
+        <v>30100</v>
       </c>
       <c r="G34" t="n">
-        <v>12.17666666666665</v>
+        <v>12.17333333333331</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C35" t="n">
         <v>12.3</v>
@@ -1597,13 +1617,13 @@
         <v>12.3</v>
       </c>
       <c r="E35" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F35" t="n">
-        <v>825443.8974</v>
+        <v>243.9024</v>
       </c>
       <c r="G35" t="n">
-        <v>12.17833333333331</v>
+        <v>12.17666666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E36" t="n">
         <v>12.1</v>
       </c>
       <c r="F36" t="n">
-        <v>19281.4446</v>
+        <v>825443.8974</v>
       </c>
       <c r="G36" t="n">
-        <v>12.17666666666664</v>
+        <v>12.17833333333331</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>63395.5639</v>
+        <v>19281.4446</v>
       </c>
       <c r="G37" t="n">
-        <v>12.17333333333331</v>
+        <v>12.17666666666664</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,19 +1713,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>2790</v>
+        <v>63395.5639</v>
       </c>
       <c r="G38" t="n">
         <v>12.17333333333331</v>
@@ -1740,7 +1760,7 @@
         <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>10026.2809</v>
+        <v>2790</v>
       </c>
       <c r="G39" t="n">
         <v>12.17333333333331</v>
@@ -1763,22 +1783,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>74210.8878</v>
+        <v>10026.2809</v>
       </c>
       <c r="G40" t="n">
-        <v>12.16999999999998</v>
+        <v>12.17333333333331</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1821,19 @@
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D41" t="n">
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F41" t="n">
-        <v>62340</v>
+        <v>74210.8878</v>
       </c>
       <c r="G41" t="n">
-        <v>12.16833333333331</v>
+        <v>12.16999999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1839,16 +1859,16 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>121438.7401</v>
+        <v>62340</v>
       </c>
       <c r="G42" t="n">
-        <v>12.16666666666664</v>
+        <v>12.16833333333331</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,19 +1888,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>12.1</v>
       </c>
       <c r="E43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>30521.702</v>
+        <v>121438.7401</v>
       </c>
       <c r="G43" t="n">
         <v>12.16666666666664</v>
@@ -1903,19 +1923,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C44" t="n">
         <v>12.1</v>
       </c>
       <c r="D44" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E44" t="n">
         <v>12.1</v>
       </c>
       <c r="F44" t="n">
-        <v>22343.2627</v>
+        <v>30521.702</v>
       </c>
       <c r="G44" t="n">
         <v>12.16666666666664</v>
@@ -1938,22 +1958,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C45" t="n">
         <v>12.1</v>
       </c>
       <c r="D45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E45" t="n">
         <v>12.1</v>
       </c>
       <c r="F45" t="n">
-        <v>6530.7722</v>
+        <v>22343.2627</v>
       </c>
       <c r="G45" t="n">
-        <v>12.16499999999997</v>
+        <v>12.16666666666664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,7 +2005,7 @@
         <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>4490.1809</v>
+        <v>6530.7722</v>
       </c>
       <c r="G46" t="n">
         <v>12.16499999999997</v>
@@ -2020,7 +2040,7 @@
         <v>12.1</v>
       </c>
       <c r="F47" t="n">
-        <v>2179.6932</v>
+        <v>4490.1809</v>
       </c>
       <c r="G47" t="n">
         <v>12.16499999999997</v>
@@ -2052,10 +2072,10 @@
         <v>12.1</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F48" t="n">
-        <v>11839.31</v>
+        <v>2179.6932</v>
       </c>
       <c r="G48" t="n">
         <v>12.16499999999997</v>
@@ -2087,10 +2107,10 @@
         <v>12.1</v>
       </c>
       <c r="E49" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>5356.747</v>
+        <v>11839.31</v>
       </c>
       <c r="G49" t="n">
         <v>12.16499999999997</v>
@@ -2122,10 +2142,10 @@
         <v>12.1</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F50" t="n">
-        <v>12103.4266</v>
+        <v>5356.747</v>
       </c>
       <c r="G50" t="n">
         <v>12.16499999999997</v>
@@ -2157,10 +2177,10 @@
         <v>12.1</v>
       </c>
       <c r="E51" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>5694.8996</v>
+        <v>12103.4266</v>
       </c>
       <c r="G51" t="n">
         <v>12.16499999999997</v>
@@ -2195,7 +2215,7 @@
         <v>12.1</v>
       </c>
       <c r="F52" t="n">
-        <v>1715.5737</v>
+        <v>5694.8996</v>
       </c>
       <c r="G52" t="n">
         <v>12.16499999999997</v>
@@ -2230,7 +2250,7 @@
         <v>12.1</v>
       </c>
       <c r="F53" t="n">
-        <v>1637.6144</v>
+        <v>1715.5737</v>
       </c>
       <c r="G53" t="n">
         <v>12.16499999999997</v>
@@ -2265,7 +2285,7 @@
         <v>12.1</v>
       </c>
       <c r="F54" t="n">
-        <v>845.7306</v>
+        <v>1637.6144</v>
       </c>
       <c r="G54" t="n">
         <v>12.16499999999997</v>
@@ -2300,10 +2320,10 @@
         <v>12.1</v>
       </c>
       <c r="F55" t="n">
-        <v>462</v>
+        <v>845.7306</v>
       </c>
       <c r="G55" t="n">
-        <v>12.16666666666664</v>
+        <v>12.16499999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2355,10 @@
         <v>12.1</v>
       </c>
       <c r="F56" t="n">
-        <v>980</v>
+        <v>462</v>
       </c>
       <c r="G56" t="n">
-        <v>12.16833333333331</v>
+        <v>12.16666666666664</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2390,10 @@
         <v>12.1</v>
       </c>
       <c r="F57" t="n">
-        <v>370</v>
+        <v>980</v>
       </c>
       <c r="G57" t="n">
-        <v>12.17166666666664</v>
+        <v>12.16833333333331</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2413,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F58" t="n">
-        <v>50000</v>
+        <v>370</v>
       </c>
       <c r="G58" t="n">
-        <v>12.17333333333331</v>
+        <v>12.17166666666664</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,16 +2451,16 @@
         <v>12</v>
       </c>
       <c r="C59" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
         <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>35207.8</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="n">
         <v>12.17333333333331</v>
@@ -2463,19 +2483,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
         <v>11.9</v>
       </c>
       <c r="D60" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
         <v>11.9</v>
       </c>
       <c r="F60" t="n">
-        <v>28800</v>
+        <v>35207.8</v>
       </c>
       <c r="G60" t="n">
         <v>12.17333333333331</v>
@@ -2498,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F61" t="n">
-        <v>12080</v>
+        <v>28800</v>
       </c>
       <c r="G61" t="n">
-        <v>12.17499999999998</v>
+        <v>12.17333333333331</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,16 +2556,16 @@
         <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
         <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>5490</v>
+        <v>12080</v>
       </c>
       <c r="G62" t="n">
         <v>12.17499999999998</v>
@@ -2568,19 +2588,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
         <v>11.9</v>
       </c>
       <c r="D63" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
         <v>11.9</v>
       </c>
       <c r="F63" t="n">
-        <v>25000</v>
+        <v>5490</v>
       </c>
       <c r="G63" t="n">
         <v>12.17499999999998</v>
@@ -2603,22 +2623,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F64" t="n">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="G64" t="n">
-        <v>12.17666666666664</v>
+        <v>12.17499999999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2661,19 @@
         <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>105000</v>
+        <v>24800</v>
       </c>
       <c r="G65" t="n">
-        <v>12.17999999999998</v>
+        <v>12.17666666666664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2696,19 @@
         <v>12</v>
       </c>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E66" t="n">
         <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>40000</v>
+        <v>105000</v>
       </c>
       <c r="G66" t="n">
-        <v>12.18166666666665</v>
+        <v>12.17999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2728,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C67" t="n">
         <v>12</v>
@@ -2717,13 +2737,13 @@
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>142334.1884</v>
+        <v>40000</v>
       </c>
       <c r="G67" t="n">
-        <v>12.18333333333331</v>
+        <v>12.18166666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2763,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C68" t="n">
         <v>12</v>
@@ -2752,13 +2772,13 @@
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F68" t="n">
-        <v>6851.7593</v>
+        <v>142334.1884</v>
       </c>
       <c r="G68" t="n">
-        <v>12.18499999999998</v>
+        <v>12.18333333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2798,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>6851.7593</v>
       </c>
       <c r="G69" t="n">
-        <v>12.18166666666665</v>
+        <v>12.18499999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2833,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F70" t="n">
-        <v>17935.4196</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>12.17999999999998</v>
+        <v>12.18166666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2880,10 @@
         <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>16298.6776</v>
+        <v>17935.4196</v>
       </c>
       <c r="G71" t="n">
-        <v>12.17833333333331</v>
+        <v>12.17999999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2903,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>16709.4957</v>
+        <v>16298.6776</v>
       </c>
       <c r="G72" t="n">
-        <v>12.16999999999998</v>
+        <v>12.17833333333331</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2938,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F73" t="n">
-        <v>48000</v>
+        <v>16709.4957</v>
       </c>
       <c r="G73" t="n">
-        <v>12.16166666666664</v>
+        <v>12.16999999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2985,10 @@
         <v>11.8</v>
       </c>
       <c r="F74" t="n">
-        <v>13400</v>
+        <v>48000</v>
       </c>
       <c r="G74" t="n">
-        <v>12.15166666666664</v>
+        <v>12.16166666666664</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3020,10 @@
         <v>11.8</v>
       </c>
       <c r="F75" t="n">
-        <v>6187.6271</v>
+        <v>13400</v>
       </c>
       <c r="G75" t="n">
-        <v>12.14166666666664</v>
+        <v>12.15166666666664</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3055,10 @@
         <v>11.8</v>
       </c>
       <c r="F76" t="n">
-        <v>31844.6822</v>
+        <v>6187.6271</v>
       </c>
       <c r="G76" t="n">
-        <v>12.12999999999998</v>
+        <v>12.14166666666664</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3078,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F77" t="n">
-        <v>30806.7902</v>
+        <v>31844.6822</v>
       </c>
       <c r="G77" t="n">
-        <v>12.11666666666664</v>
+        <v>12.12999999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F78" t="n">
-        <v>2790.7651</v>
+        <v>30806.7902</v>
       </c>
       <c r="G78" t="n">
-        <v>12.10499999999998</v>
+        <v>12.11666666666664</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3160,10 @@
         <v>11.8</v>
       </c>
       <c r="F79" t="n">
-        <v>16740</v>
+        <v>2790.7651</v>
       </c>
       <c r="G79" t="n">
-        <v>12.09499999999998</v>
+        <v>12.10499999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3195,10 @@
         <v>11.8</v>
       </c>
       <c r="F80" t="n">
-        <v>19530</v>
+        <v>16740</v>
       </c>
       <c r="G80" t="n">
-        <v>12.08499999999998</v>
+        <v>12.09499999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3221,19 @@
         <v>11.8</v>
       </c>
       <c r="C81" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D81" t="n">
         <v>11.8</v>
       </c>
       <c r="E81" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F81" t="n">
-        <v>55013.5528</v>
+        <v>19530</v>
       </c>
       <c r="G81" t="n">
-        <v>12.07166666666664</v>
+        <v>12.08499999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,32 +3256,28 @@
         <v>11.8</v>
       </c>
       <c r="C82" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D82" t="n">
         <v>11.8</v>
       </c>
       <c r="E82" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F82" t="n">
-        <v>11090</v>
+        <v>55013.5528</v>
       </c>
       <c r="G82" t="n">
-        <v>12.06166666666664</v>
+        <v>12.07166666666664</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K82" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3284,28 +3300,20 @@
         <v>11.8</v>
       </c>
       <c r="F83" t="n">
-        <v>16640</v>
+        <v>11090</v>
       </c>
       <c r="G83" t="n">
-        <v>12.05166666666664</v>
+        <v>12.06166666666664</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,10 +3335,10 @@
         <v>11.8</v>
       </c>
       <c r="F84" t="n">
-        <v>2770</v>
+        <v>16640</v>
       </c>
       <c r="G84" t="n">
-        <v>12.04166666666664</v>
+        <v>12.05166666666664</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3339,14 +3347,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3356,7 +3358,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C85" t="n">
         <v>11.8</v>
@@ -3365,13 +3367,13 @@
         <v>11.8</v>
       </c>
       <c r="E85" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F85" t="n">
-        <v>5653.4166</v>
+        <v>2770</v>
       </c>
       <c r="G85" t="n">
-        <v>12.03166666666664</v>
+        <v>12.04166666666664</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,7 +3393,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C86" t="n">
         <v>11.8</v>
@@ -3400,13 +3402,13 @@
         <v>11.8</v>
       </c>
       <c r="E86" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F86" t="n">
-        <v>2780</v>
+        <v>5653.4166</v>
       </c>
       <c r="G86" t="n">
-        <v>12.02166666666664</v>
+        <v>12.03166666666664</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F87" t="n">
-        <v>100000</v>
+        <v>2780</v>
       </c>
       <c r="G87" t="n">
-        <v>12.00999999999997</v>
+        <v>12.02166666666664</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3464,19 +3466,19 @@
         <v>11.7</v>
       </c>
       <c r="C88" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D88" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E88" t="n">
         <v>11.7</v>
       </c>
       <c r="F88" t="n">
-        <v>20448.5635</v>
+        <v>100000</v>
       </c>
       <c r="G88" t="n">
-        <v>11.99999999999998</v>
+        <v>12.00999999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3508,10 +3510,10 @@
         <v>11.7</v>
       </c>
       <c r="F89" t="n">
-        <v>24690</v>
+        <v>20448.5635</v>
       </c>
       <c r="G89" t="n">
-        <v>11.99166666666664</v>
+        <v>11.99999999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3534,19 +3536,19 @@
         <v>11.7</v>
       </c>
       <c r="C90" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D90" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E90" t="n">
         <v>11.7</v>
       </c>
       <c r="F90" t="n">
-        <v>23898.3675</v>
+        <v>24690</v>
       </c>
       <c r="G90" t="n">
-        <v>11.98166666666664</v>
+        <v>11.99166666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3578,10 +3580,10 @@
         <v>11.7</v>
       </c>
       <c r="F91" t="n">
-        <v>18150</v>
+        <v>23898.3675</v>
       </c>
       <c r="G91" t="n">
-        <v>11.96999999999998</v>
+        <v>11.98166666666664</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,22 +3603,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F92" t="n">
-        <v>115054.6802</v>
+        <v>18150</v>
       </c>
       <c r="G92" t="n">
-        <v>11.95999999999998</v>
+        <v>11.96999999999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3648,10 +3650,10 @@
         <v>11.8</v>
       </c>
       <c r="F93" t="n">
-        <v>21058.4608</v>
+        <v>115054.6802</v>
       </c>
       <c r="G93" t="n">
-        <v>11.95166666666664</v>
+        <v>11.95999999999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3673,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F94" t="n">
-        <v>24600</v>
+        <v>21058.4608</v>
       </c>
       <c r="G94" t="n">
-        <v>11.94166666666665</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>11.7</v>
       </c>
       <c r="F95" t="n">
-        <v>1682.1374</v>
+        <v>24600</v>
       </c>
       <c r="G95" t="n">
-        <v>11.93166666666665</v>
+        <v>11.94166666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3741,22 +3743,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C96" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E96" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F96" t="n">
-        <v>157415.4621</v>
+        <v>1682.1374</v>
       </c>
       <c r="G96" t="n">
-        <v>11.92833333333331</v>
+        <v>11.93166666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3776,22 +3778,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C97" t="n">
         <v>11.9</v>
       </c>
       <c r="D97" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F97" t="n">
-        <v>3520</v>
+        <v>157415.4621</v>
       </c>
       <c r="G97" t="n">
-        <v>11.92666666666665</v>
+        <v>11.92833333333331</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3811,22 +3813,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F98" t="n">
-        <v>791.4451</v>
+        <v>3520</v>
       </c>
       <c r="G98" t="n">
-        <v>11.92499999999998</v>
+        <v>11.92666666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3858,10 +3860,10 @@
         <v>12</v>
       </c>
       <c r="F99" t="n">
-        <v>50000</v>
+        <v>791.4451</v>
       </c>
       <c r="G99" t="n">
-        <v>11.92333333333331</v>
+        <v>11.92499999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3884,19 +3886,19 @@
         <v>12</v>
       </c>
       <c r="C100" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E100" t="n">
         <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G100" t="n">
-        <v>11.92666666666665</v>
+        <v>11.92333333333331</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +3918,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D101" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E101" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F101" t="n">
-        <v>86788.3458</v>
+        <v>20000</v>
       </c>
       <c r="G101" t="n">
-        <v>11.92999999999998</v>
+        <v>11.92666666666665</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3963,10 +3965,10 @@
         <v>12.2</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>86788.3458</v>
       </c>
       <c r="G102" t="n">
-        <v>11.93333333333331</v>
+        <v>11.92999999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3998,10 +4000,10 @@
         <v>12.2</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>11.93499999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4033,16 +4035,16 @@
         <v>12.2</v>
       </c>
       <c r="F104" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>11.93666666666665</v>
+        <v>11.93499999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4068,16 +4070,16 @@
         <v>12.2</v>
       </c>
       <c r="F105" t="n">
-        <v>3247.7049</v>
+        <v>14</v>
       </c>
       <c r="G105" t="n">
-        <v>11.93833333333331</v>
+        <v>11.93666666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4091,19 +4093,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>3247.7049</v>
       </c>
       <c r="G106" t="n">
         <v>11.93833333333331</v>
@@ -4112,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4138,7 +4140,7 @@
         <v>12.1</v>
       </c>
       <c r="F107" t="n">
-        <v>72870.3941</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
         <v>11.93833333333331</v>
@@ -4173,7 +4175,7 @@
         <v>12.1</v>
       </c>
       <c r="F108" t="n">
-        <v>18188.3083</v>
+        <v>72870.3941</v>
       </c>
       <c r="G108" t="n">
         <v>11.93833333333331</v>
@@ -4208,7 +4210,7 @@
         <v>12.1</v>
       </c>
       <c r="F109" t="n">
-        <v>3453.5809</v>
+        <v>18188.3083</v>
       </c>
       <c r="G109" t="n">
         <v>11.93833333333331</v>
@@ -4234,19 +4236,19 @@
         <v>12.1</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E110" t="n">
         <v>12.1</v>
       </c>
       <c r="F110" t="n">
-        <v>2587.6726</v>
+        <v>3453.5809</v>
       </c>
       <c r="G110" t="n">
-        <v>11.93999999999998</v>
+        <v>11.93833333333331</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,19 +4268,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C111" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D111" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E111" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F111" t="n">
-        <v>53215.6471</v>
+        <v>2587.6726</v>
       </c>
       <c r="G111" t="n">
         <v>11.93999999999998</v>
@@ -4304,19 +4306,19 @@
         <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F112" t="n">
-        <v>13350.4581</v>
+        <v>53215.6471</v>
       </c>
       <c r="G112" t="n">
-        <v>11.93833333333331</v>
+        <v>11.93999999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4348,10 +4350,10 @@
         <v>12</v>
       </c>
       <c r="F113" t="n">
-        <v>5120</v>
+        <v>13350.4581</v>
       </c>
       <c r="G113" t="n">
-        <v>11.93666666666665</v>
+        <v>11.93833333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,22 +4373,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
-        <v>245.6111</v>
+        <v>5120</v>
       </c>
       <c r="G114" t="n">
-        <v>11.93333333333331</v>
+        <v>11.93666666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4418,10 +4420,10 @@
         <v>11.9</v>
       </c>
       <c r="F115" t="n">
-        <v>2667.2345</v>
+        <v>245.6111</v>
       </c>
       <c r="G115" t="n">
-        <v>11.92999999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4441,22 +4443,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F116" t="n">
-        <v>30775.7549</v>
+        <v>2667.2345</v>
       </c>
       <c r="G116" t="n">
-        <v>11.92833333333331</v>
+        <v>11.92999999999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4488,10 +4490,10 @@
         <v>12</v>
       </c>
       <c r="F117" t="n">
-        <v>4340</v>
+        <v>30775.7549</v>
       </c>
       <c r="G117" t="n">
-        <v>11.92666666666665</v>
+        <v>11.92833333333331</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4511,22 +4513,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F118" t="n">
-        <v>1152.2975</v>
+        <v>4340</v>
       </c>
       <c r="G118" t="n">
-        <v>11.92833333333331</v>
+        <v>11.92666666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4558,10 +4560,10 @@
         <v>12.1</v>
       </c>
       <c r="F119" t="n">
-        <v>25997.1234</v>
+        <v>1152.2975</v>
       </c>
       <c r="G119" t="n">
-        <v>11.93166666666665</v>
+        <v>11.92833333333331</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4581,22 +4583,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F120" t="n">
-        <v>11642.3995</v>
+        <v>25997.1234</v>
       </c>
       <c r="G120" t="n">
-        <v>11.93333333333331</v>
+        <v>11.93166666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4628,7 +4630,7 @@
         <v>12</v>
       </c>
       <c r="F121" t="n">
-        <v>2772.3995</v>
+        <v>11642.3995</v>
       </c>
       <c r="G121" t="n">
         <v>11.93333333333331</v>
@@ -4663,10 +4665,10 @@
         <v>12</v>
       </c>
       <c r="F122" t="n">
-        <v>5895.7924</v>
+        <v>2772.3995</v>
       </c>
       <c r="G122" t="n">
-        <v>11.93499999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4686,22 +4688,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
-        <v>1694.6818</v>
+        <v>5895.7924</v>
       </c>
       <c r="G123" t="n">
-        <v>11.93833333333331</v>
+        <v>11.93499999999998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4733,10 +4735,10 @@
         <v>12.1</v>
       </c>
       <c r="F124" t="n">
-        <v>38</v>
+        <v>1694.6818</v>
       </c>
       <c r="G124" t="n">
-        <v>11.93999999999998</v>
+        <v>11.93833333333331</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4768,7 +4770,7 @@
         <v>12.1</v>
       </c>
       <c r="F125" t="n">
-        <v>9600</v>
+        <v>38</v>
       </c>
       <c r="G125" t="n">
         <v>11.93999999999998</v>
@@ -4803,10 +4805,10 @@
         <v>12.1</v>
       </c>
       <c r="F126" t="n">
-        <v>14200</v>
+        <v>9600</v>
       </c>
       <c r="G126" t="n">
-        <v>11.94166666666665</v>
+        <v>11.93999999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4826,19 +4828,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F127" t="n">
-        <v>826</v>
+        <v>14200</v>
       </c>
       <c r="G127" t="n">
         <v>11.94166666666665</v>
@@ -4861,22 +4863,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>6800</v>
+        <v>826</v>
       </c>
       <c r="G128" t="n">
-        <v>11.94333333333332</v>
+        <v>11.94166666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4891,6 +4893,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G129" t="n">
+        <v>11.94333333333332</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3482.6087</v>
       </c>
       <c r="G2" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.10666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,25 @@
         <v>2745.7818</v>
       </c>
       <c r="G3" t="n">
+        <v>12.00666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.10500000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>11.9</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,26 +533,27 @@
         <v>1129.9435</v>
       </c>
       <c r="G4" t="n">
+        <v>11.99333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.10333333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,26 +577,29 @@
         <v>9088.9107</v>
       </c>
       <c r="G5" t="n">
-        <v>12.1</v>
+        <v>11.98</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>12.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>11.9</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,18 +623,25 @@
         <v>1739.1304</v>
       </c>
       <c r="G6" t="n">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.09833333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,18 +665,29 @@
         <v>1554.715</v>
       </c>
       <c r="G7" t="n">
+        <v>11.95333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.095</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,18 +711,29 @@
         <v>1733.572</v>
       </c>
       <c r="G8" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.09</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,18 +757,25 @@
         <v>7604.1548</v>
       </c>
       <c r="G9" t="n">
+        <v>11.92666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.085</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,18 +799,29 @@
         <v>112008.683</v>
       </c>
       <c r="G10" t="n">
+        <v>11.92666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.08333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +845,29 @@
         <v>47768.8099</v>
       </c>
       <c r="G11" t="n">
+        <v>11.93333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.08166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,18 +891,21 @@
         <v>25264.9738</v>
       </c>
       <c r="G12" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.08</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +929,21 @@
         <v>70700.73239999999</v>
       </c>
       <c r="G13" t="n">
+        <v>11.97333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.08333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +967,21 @@
         <v>235617.2999</v>
       </c>
       <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.085</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +1005,21 @@
         <v>55027.5522</v>
       </c>
       <c r="G15" t="n">
+        <v>12.03333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.08833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,18 +1043,21 @@
         <v>90357.24980000001</v>
       </c>
       <c r="G16" t="n">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.09333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -993,18 +1081,21 @@
         <v>48800</v>
       </c>
       <c r="G17" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.09999999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,18 +1119,21 @@
         <v>33539.0294</v>
       </c>
       <c r="G18" t="n">
+        <v>12.14666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.10499999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +1157,21 @@
         <v>41546.443</v>
       </c>
       <c r="G19" t="n">
+        <v>12.18666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.10833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1195,21 @@
         <v>9802.4967</v>
       </c>
       <c r="G20" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.11333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1233,21 @@
         <v>11682.1209</v>
       </c>
       <c r="G21" t="n">
+        <v>12.25333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.11833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1271,21 @@
         <v>81130.50750000001</v>
       </c>
       <c r="G22" t="n">
+        <v>12.29333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.12499999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1309,21 @@
         <v>84079.7335</v>
       </c>
       <c r="G23" t="n">
+        <v>12.32666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.12833333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1347,21 @@
         <v>33400</v>
       </c>
       <c r="G24" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.13333333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1385,21 @@
         <v>28842.8294</v>
       </c>
       <c r="G25" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.13833333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1423,21 @@
         <v>33450</v>
       </c>
       <c r="G26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.14333333333332</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1461,21 @@
         <v>33460</v>
       </c>
       <c r="G27" t="n">
+        <v>12.42000000000001</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.14833333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1499,21 @@
         <v>200</v>
       </c>
       <c r="G28" t="n">
+        <v>12.42000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.15333333333332</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1537,21 @@
         <v>31704.6774</v>
       </c>
       <c r="G29" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.15833333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1575,21 @@
         <v>71962.439</v>
       </c>
       <c r="G30" t="n">
+        <v>12.42000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.16166666666665</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1613,21 @@
         <v>250</v>
       </c>
       <c r="G31" t="n">
+        <v>12.41333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.16499999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1651,21 @@
         <v>4587.561</v>
       </c>
       <c r="G32" t="n">
+        <v>12.40666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.16833333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1689,21 @@
         <v>1500</v>
       </c>
       <c r="G33" t="n">
+        <v>12.40000000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.17166666666665</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1727,21 @@
         <v>30100</v>
       </c>
       <c r="G34" t="n">
+        <v>12.38666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.17333333333331</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1765,21 @@
         <v>243.9024</v>
       </c>
       <c r="G35" t="n">
+        <v>12.38000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.17666666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1803,21 @@
         <v>825443.8974</v>
       </c>
       <c r="G36" t="n">
+        <v>12.37333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.17833333333331</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1841,21 @@
         <v>19281.4446</v>
       </c>
       <c r="G37" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.17666666666664</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1879,21 @@
         <v>63395.5639</v>
       </c>
       <c r="G38" t="n">
+        <v>12.32000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.17333333333331</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1917,21 @@
         <v>2790</v>
       </c>
       <c r="G39" t="n">
+        <v>12.30000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.17333333333331</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +1955,21 @@
         <v>10026.2809</v>
       </c>
       <c r="G40" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.17333333333331</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +1993,21 @@
         <v>74210.8878</v>
       </c>
       <c r="G41" t="n">
+        <v>12.24666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.16999999999998</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +2031,21 @@
         <v>62340</v>
       </c>
       <c r="G42" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.16833333333331</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2069,21 @@
         <v>121438.7401</v>
       </c>
       <c r="G43" t="n">
+        <v>12.19333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.16666666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2107,21 @@
         <v>30521.702</v>
       </c>
       <c r="G44" t="n">
+        <v>12.17333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.16666666666664</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2145,21 @@
         <v>22343.2627</v>
       </c>
       <c r="G45" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.16666666666664</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2183,21 @@
         <v>6530.7722</v>
       </c>
       <c r="G46" t="n">
+        <v>12.14666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2221,21 @@
         <v>4490.1809</v>
       </c>
       <c r="G47" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2259,21 @@
         <v>2179.6932</v>
       </c>
       <c r="G48" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2297,21 @@
         <v>11839.31</v>
       </c>
       <c r="G49" t="n">
+        <v>12.09333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2335,21 @@
         <v>5356.747</v>
       </c>
       <c r="G50" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2373,21 @@
         <v>12103.4266</v>
       </c>
       <c r="G51" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2411,21 @@
         <v>5694.8996</v>
       </c>
       <c r="G52" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2449,21 @@
         <v>1715.5737</v>
       </c>
       <c r="G53" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2487,21 @@
         <v>1637.6144</v>
       </c>
       <c r="G54" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2525,21 @@
         <v>845.7306</v>
       </c>
       <c r="G55" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.16499999999997</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2563,21 @@
         <v>462</v>
       </c>
       <c r="G56" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.16666666666664</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2601,21 @@
         <v>980</v>
       </c>
       <c r="G57" t="n">
+        <v>12.09333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.16833333333331</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2639,21 @@
         <v>370</v>
       </c>
       <c r="G58" t="n">
+        <v>12.09999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.17166666666664</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2677,21 @@
         <v>50000</v>
       </c>
       <c r="G59" t="n">
+        <v>12.09333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.17333333333331</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2715,21 @@
         <v>35207.8</v>
       </c>
       <c r="G60" t="n">
+        <v>12.07999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.17333333333331</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2753,21 @@
         <v>28800</v>
       </c>
       <c r="G61" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.17333333333331</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2791,21 @@
         <v>12080</v>
       </c>
       <c r="G62" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.17499999999998</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +2829,21 @@
         <v>5490</v>
       </c>
       <c r="G63" t="n">
+        <v>12.04666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.17499999999998</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +2867,21 @@
         <v>25000</v>
       </c>
       <c r="G64" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.17499999999998</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +2905,21 @@
         <v>24800</v>
       </c>
       <c r="G65" t="n">
+        <v>12.02666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.17666666666664</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +2943,21 @@
         <v>105000</v>
       </c>
       <c r="G66" t="n">
+        <v>12.02666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.17999999999998</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +2981,21 @@
         <v>40000</v>
       </c>
       <c r="G67" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.18166666666665</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3019,21 @@
         <v>142334.1884</v>
       </c>
       <c r="G68" t="n">
+        <v>12.01333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.18333333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3057,21 @@
         <v>6851.7593</v>
       </c>
       <c r="G69" t="n">
+        <v>12.00666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.18499999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3095,21 @@
         <v>2000</v>
       </c>
       <c r="G70" t="n">
+        <v>11.99333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.18166666666665</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3133,21 @@
         <v>17935.4196</v>
       </c>
       <c r="G71" t="n">
+        <v>11.98666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.17999999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3171,21 @@
         <v>16298.6776</v>
       </c>
       <c r="G72" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.17833333333331</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3209,21 @@
         <v>16709.4957</v>
       </c>
       <c r="G73" t="n">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.16999999999998</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3247,21 @@
         <v>48000</v>
       </c>
       <c r="G74" t="n">
+        <v>11.95333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.16166666666664</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3285,21 @@
         <v>13400</v>
       </c>
       <c r="G75" t="n">
+        <v>11.94666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.15166666666664</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3323,21 @@
         <v>6187.6271</v>
       </c>
       <c r="G76" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.14166666666664</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3361,21 @@
         <v>31844.6822</v>
       </c>
       <c r="G77" t="n">
+        <v>11.92666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.12999999999998</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3399,21 @@
         <v>30806.7902</v>
       </c>
       <c r="G78" t="n">
+        <v>11.91333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.11666666666664</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3437,21 @@
         <v>2790.7651</v>
       </c>
       <c r="G79" t="n">
+        <v>11.90666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.10499999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3475,21 @@
         <v>16740</v>
       </c>
       <c r="G80" t="n">
+        <v>11.89333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.09499999999998</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3513,21 @@
         <v>19530</v>
       </c>
       <c r="G81" t="n">
+        <v>11.87333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.08499999999998</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3551,21 @@
         <v>55013.5528</v>
       </c>
       <c r="G82" t="n">
+        <v>11.85333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.07166666666664</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3589,21 @@
         <v>11090</v>
       </c>
       <c r="G83" t="n">
+        <v>11.84000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.06166666666664</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3627,21 @@
         <v>16640</v>
       </c>
       <c r="G84" t="n">
+        <v>11.82666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.05166666666664</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3665,21 @@
         <v>2770</v>
       </c>
       <c r="G85" t="n">
+        <v>11.82000000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.04166666666664</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3703,21 @@
         <v>5653.4166</v>
       </c>
       <c r="G86" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.03166666666664</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3741,21 @@
         <v>2780</v>
       </c>
       <c r="G87" t="n">
+        <v>11.79333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.02166666666664</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3779,21 @@
         <v>100000</v>
       </c>
       <c r="G88" t="n">
+        <v>11.78000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.00999999999997</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3817,21 @@
         <v>20448.5635</v>
       </c>
       <c r="G89" t="n">
+        <v>11.78000000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.99999999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +3855,21 @@
         <v>24690</v>
       </c>
       <c r="G90" t="n">
+        <v>11.78000000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.99166666666664</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +3893,21 @@
         <v>23898.3675</v>
       </c>
       <c r="G91" t="n">
+        <v>11.77333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.98166666666664</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +3931,21 @@
         <v>18150</v>
       </c>
       <c r="G92" t="n">
+        <v>11.76666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.96999999999998</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +3969,21 @@
         <v>115054.6802</v>
       </c>
       <c r="G93" t="n">
+        <v>11.77333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.95999999999998</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4007,25 @@
         <v>21058.4608</v>
       </c>
       <c r="G94" t="n">
+        <v>11.77333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4049,29 @@
         <v>24600</v>
       </c>
       <c r="G95" t="n">
+        <v>11.76666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.94166666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4095,29 @@
         <v>1682.1374</v>
       </c>
       <c r="G96" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.93166666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4141,25 @@
         <v>157415.4621</v>
       </c>
       <c r="G97" t="n">
+        <v>11.77333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.92833333333331</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L97" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4183,27 @@
         <v>3520</v>
       </c>
       <c r="G98" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.92666666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4227,27 @@
         <v>791.4451</v>
       </c>
       <c r="G99" t="n">
+        <v>11.79333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.92499999999998</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4271,21 @@
         <v>50000</v>
       </c>
       <c r="G100" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.92333333333331</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4309,21 @@
         <v>20000</v>
       </c>
       <c r="G101" t="n">
+        <v>11.82666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.92666666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4347,21 @@
         <v>86788.3458</v>
       </c>
       <c r="G102" t="n">
+        <v>11.85333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.92999999999998</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4385,21 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
+        <v>11.88666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.93333333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4423,21 @@
         <v>20</v>
       </c>
       <c r="G104" t="n">
+        <v>11.91333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.93499999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4461,21 @@
         <v>14</v>
       </c>
       <c r="G105" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.93666666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4499,21 @@
         <v>3247.7049</v>
       </c>
       <c r="G106" t="n">
+        <v>11.97333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.93833333333331</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4537,21 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>12</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.93833333333331</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +4575,21 @@
         <v>72870.3941</v>
       </c>
       <c r="G108" t="n">
+        <v>12.01999999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.93833333333331</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +4613,21 @@
         <v>18188.3083</v>
       </c>
       <c r="G109" t="n">
+        <v>12.03999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.93833333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,18 +4651,21 @@
         <v>3453.5809</v>
       </c>
       <c r="G110" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.93833333333331</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,18 +4689,21 @@
         <v>2587.6726</v>
       </c>
       <c r="G111" t="n">
+        <v>12.09999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.93999999999998</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,18 +4727,21 @@
         <v>53215.6471</v>
       </c>
       <c r="G112" t="n">
+        <v>12.11333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.93999999999998</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,18 +4765,21 @@
         <v>13350.4581</v>
       </c>
       <c r="G113" t="n">
+        <v>12.11999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.93833333333331</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +4803,21 @@
         <v>5120</v>
       </c>
       <c r="G114" t="n">
+        <v>12.11999999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.93666666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +4841,21 @@
         <v>245.6111</v>
       </c>
       <c r="G115" t="n">
+        <v>12.11333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.93333333333331</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +4879,21 @@
         <v>2667.2345</v>
       </c>
       <c r="G116" t="n">
+        <v>12.09999999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.92999999999998</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,18 +4917,21 @@
         <v>30775.7549</v>
       </c>
       <c r="G117" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.92833333333331</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,18 +4955,21 @@
         <v>4340</v>
       </c>
       <c r="G118" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.92666666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +4993,21 @@
         <v>1152.2975</v>
       </c>
       <c r="G119" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.92833333333331</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,18 +5031,21 @@
         <v>25997.1234</v>
       </c>
       <c r="G120" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.93166666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,18 +5069,21 @@
         <v>11642.3995</v>
       </c>
       <c r="G121" t="n">
+        <v>12.04666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.93333333333331</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,18 +5107,21 @@
         <v>2772.3995</v>
       </c>
       <c r="G122" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.93333333333331</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5145,21 @@
         <v>5895.7924</v>
       </c>
       <c r="G123" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.93499999999998</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,18 +5183,21 @@
         <v>1694.6818</v>
       </c>
       <c r="G124" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.93833333333331</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,18 +5221,21 @@
         <v>38</v>
       </c>
       <c r="G125" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.93999999999998</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,18 +5259,21 @@
         <v>9600</v>
       </c>
       <c r="G126" t="n">
+        <v>12.02666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.93999999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,18 +5297,21 @@
         <v>14200</v>
       </c>
       <c r="G127" t="n">
+        <v>12.02666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.94166666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,18 +5335,21 @@
         <v>826</v>
       </c>
       <c r="G128" t="n">
+        <v>12.02666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.94166666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,18 +5373,401 @@
         <v>6800</v>
       </c>
       <c r="G129" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.94333333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>73000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>12.04666666666666</v>
+      </c>
+      <c r="H130" t="n">
+        <v>11.94666666666665</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16400</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H131" t="n">
+        <v>11.94833333333332</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4055.0969</v>
+      </c>
+      <c r="G132" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H132" t="n">
+        <v>11.94833333333332</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4050</v>
+      </c>
+      <c r="G133" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H133" t="n">
+        <v>11.94999999999999</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>25596</v>
+      </c>
+      <c r="G134" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H134" t="n">
+        <v>11.95499999999999</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>252</v>
+      </c>
+      <c r="G135" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H135" t="n">
+        <v>11.95999999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>28200</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H136" t="n">
+        <v>11.96499999999999</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>249</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H137" t="n">
+        <v>11.96999999999999</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>54315.1284</v>
+      </c>
+      <c r="G138" t="n">
+        <v>12.07999999999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>11.97666666666666</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1878.7213</v>
+      </c>
+      <c r="G139" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H139" t="n">
+        <v>11.98333333333332</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F2" t="n">
-        <v>3482.6087</v>
+        <v>4036.2564</v>
       </c>
       <c r="G2" t="n">
-        <v>12.02</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>12.10666666666667</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D3" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2745.7818</v>
+        <v>14210.3407</v>
       </c>
       <c r="G3" t="n">
-        <v>12.00666666666667</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>12.10500000000001</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="K3" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,42 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1129.9435</v>
+        <v>66439.88989999999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99333333333333</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.10333333333334</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>12.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -562,44 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D5" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F5" t="n">
-        <v>9088.9107</v>
+        <v>36098.1967</v>
       </c>
       <c r="G5" t="n">
-        <v>11.98</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>12.1</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="K5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>12.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,40 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D6" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1739.1304</v>
+        <v>99121.1057</v>
       </c>
       <c r="G6" t="n">
-        <v>11.96666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>12.09833333333334</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="K6" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,44 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D7" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1554.715</v>
+        <v>11802.5409</v>
       </c>
       <c r="G7" t="n">
-        <v>11.95333333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>12.095</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="K7" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M7" t="inlineStr">
+        <v>12.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,44 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C8" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E8" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F8" t="n">
-        <v>1733.572</v>
+        <v>50110</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12.09</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="K8" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>12.2</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,40 +718,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C9" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E9" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F9" t="n">
-        <v>7604.1548</v>
+        <v>90209.43180000001</v>
       </c>
       <c r="G9" t="n">
-        <v>11.92666666666667</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>12.085</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="K9" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -796,32 +773,29 @@
         <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>112008.683</v>
+        <v>84840</v>
       </c>
       <c r="G10" t="n">
-        <v>11.92666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>12.08333333333333</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="K10" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,44 +804,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C11" t="n">
         <v>12.1</v>
       </c>
       <c r="D11" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E11" t="n">
         <v>12.1</v>
       </c>
       <c r="F11" t="n">
-        <v>47768.8099</v>
+        <v>1835.7024</v>
       </c>
       <c r="G11" t="n">
-        <v>11.93333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>12.08166666666667</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="K11" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,24 +859,29 @@
         <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>25264.9738</v>
+        <v>8080</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>12.08</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,36 +890,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F13" t="n">
-        <v>70700.73239999999</v>
+        <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>11.97333333333334</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.08333333333333</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,36 +933,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C14" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D14" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E14" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F14" t="n">
-        <v>235617.2999</v>
+        <v>8180</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>-100</v>
       </c>
       <c r="H14" t="n">
-        <v>12.085</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -990,36 +976,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C15" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F15" t="n">
-        <v>55027.5522</v>
+        <v>30000</v>
       </c>
       <c r="G15" t="n">
-        <v>12.03333333333334</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>12.08833333333333</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,36 +1019,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D16" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F16" t="n">
-        <v>90357.24980000001</v>
+        <v>6122.3309</v>
       </c>
       <c r="G16" t="n">
-        <v>12.06666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>12.09333333333333</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,36 +1062,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D17" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E17" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="F17" t="n">
-        <v>48800</v>
+        <v>6120</v>
       </c>
       <c r="G17" t="n">
-        <v>12.10666666666667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.09999999999999</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,36 +1105,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="C18" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D18" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E18" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="F18" t="n">
-        <v>33539.0294</v>
+        <v>8530</v>
       </c>
       <c r="G18" t="n">
-        <v>12.14666666666667</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>12.10499999999999</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1142,36 +1148,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="C19" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D19" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E19" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>41546.443</v>
+        <v>4270</v>
       </c>
       <c r="G19" t="n">
-        <v>12.18666666666667</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.10833333333333</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,37 +1191,42 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="C20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D20" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F20" t="n">
-        <v>9802.4967</v>
+        <v>3233.0345</v>
       </c>
       <c r="G20" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.11333333333333</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>1</v>
+        <v>12.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9868032786885246</v>
       </c>
     </row>
     <row r="21">
@@ -1218,36 +1234,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F21" t="n">
-        <v>11682.1209</v>
+        <v>54117.3553</v>
       </c>
       <c r="G21" t="n">
-        <v>12.25333333333334</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>12.11833333333333</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,36 +1277,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="F22" t="n">
-        <v>81130.50750000001</v>
+        <v>2570</v>
       </c>
       <c r="G22" t="n">
-        <v>12.29333333333333</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12.12499999999999</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,36 +1316,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C23" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D23" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E23" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F23" t="n">
-        <v>84079.7335</v>
+        <v>7734.0688</v>
       </c>
       <c r="G23" t="n">
-        <v>12.32666666666667</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.12833333333332</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,36 +1359,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C24" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D24" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E24" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F24" t="n">
-        <v>33400</v>
+        <v>5768.2452</v>
       </c>
       <c r="G24" t="n">
-        <v>12.36</v>
+        <v>-100</v>
       </c>
       <c r="H24" t="n">
-        <v>12.13333333333332</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1370,36 +1402,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C25" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>28842.8294</v>
+        <v>13200</v>
       </c>
       <c r="G25" t="n">
-        <v>12.38</v>
+        <v>-100</v>
       </c>
       <c r="H25" t="n">
-        <v>12.13833333333332</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1408,36 +1445,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>33450</v>
+        <v>20000</v>
       </c>
       <c r="G26" t="n">
-        <v>12.4</v>
+        <v>-100</v>
       </c>
       <c r="H26" t="n">
-        <v>12.14333333333332</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,36 +1488,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C27" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D27" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E27" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>33460</v>
+        <v>77649.14659999999</v>
       </c>
       <c r="G27" t="n">
-        <v>12.42000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H27" t="n">
-        <v>12.14833333333332</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,36 +1531,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C28" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D28" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E28" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>10507.7601</v>
       </c>
       <c r="G28" t="n">
-        <v>12.42000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H28" t="n">
-        <v>12.15333333333332</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,36 +1574,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C29" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D29" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E29" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>31704.6774</v>
+        <v>10555.346</v>
       </c>
       <c r="G29" t="n">
-        <v>12.42666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H29" t="n">
-        <v>12.15833333333332</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1560,36 +1617,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C30" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D30" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E30" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>71962.439</v>
+        <v>2802.9194</v>
       </c>
       <c r="G30" t="n">
-        <v>12.42000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H30" t="n">
-        <v>12.16166666666665</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,36 +1660,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C31" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D31" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E31" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>3482.6087</v>
       </c>
       <c r="G31" t="n">
-        <v>12.41333333333334</v>
+        <v>-100</v>
       </c>
       <c r="H31" t="n">
-        <v>12.16499999999998</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1636,36 +1703,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C32" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D32" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E32" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F32" t="n">
-        <v>4587.561</v>
+        <v>2745.7818</v>
       </c>
       <c r="G32" t="n">
-        <v>12.40666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H32" t="n">
-        <v>12.16833333333332</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,36 +1746,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>1500</v>
+        <v>1129.9435</v>
       </c>
       <c r="G33" t="n">
-        <v>12.40000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H33" t="n">
-        <v>12.17166666666665</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,36 +1789,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C34" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D34" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E34" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F34" t="n">
-        <v>30100</v>
+        <v>9088.9107</v>
       </c>
       <c r="G34" t="n">
-        <v>12.38666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H34" t="n">
-        <v>12.17333333333331</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1750,36 +1832,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D35" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E35" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9024</v>
+        <v>1739.1304</v>
       </c>
       <c r="G35" t="n">
-        <v>12.38000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H35" t="n">
-        <v>12.17666666666665</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,37 +1875,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C36" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D36" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E36" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F36" t="n">
-        <v>825443.8974</v>
-      </c>
-      <c r="G36" t="n">
-        <v>12.37333333333334</v>
-      </c>
+        <v>1554.715</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>12.17833333333331</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>1</v>
+        <v>11.9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9784710743801653</v>
       </c>
     </row>
     <row r="37">
@@ -1826,36 +1916,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C37" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D37" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E37" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F37" t="n">
-        <v>19281.4446</v>
-      </c>
-      <c r="G37" t="n">
-        <v>12.34666666666667</v>
-      </c>
+        <v>1733.572</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>12.17666666666664</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,36 +1957,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D38" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F38" t="n">
-        <v>63395.5639</v>
-      </c>
-      <c r="G38" t="n">
-        <v>12.32000000000001</v>
-      </c>
+        <v>7604.1548</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>12.17333333333331</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1914,24 +2006,29 @@
         <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>2790</v>
+        <v>112008.683</v>
       </c>
       <c r="G39" t="n">
-        <v>12.30000000000001</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>12.17333333333331</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1940,36 +2037,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C40" t="n">
         <v>12.1</v>
       </c>
       <c r="D40" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E40" t="n">
         <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>10026.2809</v>
+        <v>47768.8099</v>
       </c>
       <c r="G40" t="n">
-        <v>12.28</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>12.17333333333331</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,36 +2080,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C41" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E41" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F41" t="n">
-        <v>74210.8878</v>
+        <v>25264.9738</v>
       </c>
       <c r="G41" t="n">
-        <v>12.24666666666667</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>12.16999999999998</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,36 +2119,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F42" t="n">
-        <v>62340</v>
+        <v>70700.73239999999</v>
       </c>
       <c r="G42" t="n">
-        <v>12.22</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>12.16833333333331</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,36 +2162,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="D43" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="F43" t="n">
-        <v>121438.7401</v>
+        <v>235617.2999</v>
       </c>
       <c r="G43" t="n">
-        <v>12.19333333333334</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="H43" t="n">
-        <v>12.16666666666664</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,36 +2205,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C44" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D44" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E44" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F44" t="n">
-        <v>30521.702</v>
+        <v>55027.5522</v>
       </c>
       <c r="G44" t="n">
-        <v>12.17333333333334</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="H44" t="n">
-        <v>12.16666666666664</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,36 +2244,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C45" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D45" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="E45" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F45" t="n">
-        <v>22343.2627</v>
+        <v>90357.24980000001</v>
       </c>
       <c r="G45" t="n">
-        <v>12.16</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="H45" t="n">
-        <v>12.16666666666664</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,36 +2287,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="C46" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="D46" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="E46" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="F46" t="n">
-        <v>6530.7722</v>
+        <v>48800</v>
       </c>
       <c r="G46" t="n">
-        <v>12.14666666666667</v>
+        <v>75.00000000000006</v>
       </c>
       <c r="H46" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2206,36 +2330,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="C47" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="D47" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="E47" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="F47" t="n">
-        <v>4490.1809</v>
+        <v>33539.0294</v>
       </c>
       <c r="G47" t="n">
-        <v>12.12666666666667</v>
+        <v>75.00000000000006</v>
       </c>
       <c r="H47" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2244,36 +2373,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="C48" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="D48" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="E48" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>2179.6932</v>
+        <v>41546.443</v>
       </c>
       <c r="G48" t="n">
-        <v>12.10666666666667</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="H48" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,36 +2416,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="C49" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D49" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="F49" t="n">
-        <v>11839.31</v>
+        <v>9802.4967</v>
       </c>
       <c r="G49" t="n">
-        <v>12.09333333333333</v>
+        <v>42.857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,36 +2459,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C50" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D50" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E50" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>5356.747</v>
+        <v>11682.1209</v>
       </c>
       <c r="G50" t="n">
-        <v>12.08</v>
+        <v>42.857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,36 +2502,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="C51" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="D51" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F51" t="n">
-        <v>12103.4266</v>
+        <v>81130.50750000001</v>
       </c>
       <c r="G51" t="n">
-        <v>12.06666666666666</v>
+        <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2396,36 +2545,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C52" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D52" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E52" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F52" t="n">
-        <v>5694.8996</v>
+        <v>84079.7335</v>
       </c>
       <c r="G52" t="n">
-        <v>12.06666666666666</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,36 +2588,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C53" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D53" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E53" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F53" t="n">
-        <v>1715.5737</v>
+        <v>33400</v>
       </c>
       <c r="G53" t="n">
-        <v>12.07333333333333</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,36 +2631,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C54" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D54" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E54" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F54" t="n">
-        <v>1637.6144</v>
+        <v>28842.8294</v>
       </c>
       <c r="G54" t="n">
-        <v>12.07333333333333</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,36 +2674,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C55" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D55" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E55" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F55" t="n">
-        <v>845.7306</v>
+        <v>33450</v>
       </c>
       <c r="G55" t="n">
-        <v>12.07333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>12.16499999999997</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,37 +2717,42 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C56" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D56" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E56" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>462</v>
+        <v>33460</v>
       </c>
       <c r="G56" t="n">
-        <v>12.08666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>12.16666666666664</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>1</v>
+        <v>12.4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>1.003130081300813</v>
       </c>
     </row>
     <row r="57">
@@ -2586,36 +2760,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C57" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D57" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E57" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F57" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="G57" t="n">
-        <v>12.09333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>12.16833333333331</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2624,36 +2803,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C58" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D58" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E58" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F58" t="n">
-        <v>370</v>
+        <v>31704.6774</v>
       </c>
       <c r="G58" t="n">
-        <v>12.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>12.17166666666664</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2662,36 +2846,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="F59" t="n">
-        <v>50000</v>
+        <v>71962.439</v>
       </c>
       <c r="G59" t="n">
-        <v>12.09333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>12.17333333333331</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>12.4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>12.4</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,36 +2885,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="C60" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="E60" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="F60" t="n">
-        <v>35207.8</v>
+        <v>250</v>
       </c>
       <c r="G60" t="n">
-        <v>12.07999999999999</v>
+        <v>-100</v>
       </c>
       <c r="H60" t="n">
-        <v>12.17333333333331</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2738,36 +2928,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="C61" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="D61" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="E61" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="F61" t="n">
-        <v>28800</v>
+        <v>4587.561</v>
       </c>
       <c r="G61" t="n">
-        <v>12.06666666666666</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>12.17333333333331</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,36 +2971,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="F62" t="n">
-        <v>12080</v>
+        <v>1500</v>
       </c>
       <c r="G62" t="n">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>12.17499999999998</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,36 +3014,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="C63" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="E63" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="F63" t="n">
-        <v>5490</v>
+        <v>30100</v>
       </c>
       <c r="G63" t="n">
-        <v>12.04666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>12.17499999999998</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,36 +3057,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="C64" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="D64" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="E64" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="F64" t="n">
-        <v>25000</v>
+        <v>243.9024</v>
       </c>
       <c r="G64" t="n">
-        <v>12.03333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>12.17499999999998</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,36 +3100,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F65" t="n">
-        <v>24800</v>
+        <v>825443.8974</v>
       </c>
       <c r="G65" t="n">
-        <v>12.02666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>12.17666666666664</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2928,7 +3143,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C66" t="n">
         <v>12.1</v>
@@ -2937,27 +3152,32 @@
         <v>12.1</v>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>105000</v>
+        <v>19281.4446</v>
       </c>
       <c r="G66" t="n">
-        <v>12.02666666666667</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="H66" t="n">
-        <v>12.17999999999998</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,36 +3186,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C67" t="n">
         <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E67" t="n">
         <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>40000</v>
+        <v>63395.5639</v>
       </c>
       <c r="G67" t="n">
-        <v>12.02</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="H67" t="n">
-        <v>12.18166666666665</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,36 +3229,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D68" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E68" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F68" t="n">
-        <v>142334.1884</v>
+        <v>2790</v>
       </c>
       <c r="G68" t="n">
-        <v>12.01333333333333</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="H68" t="n">
-        <v>12.18333333333331</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>12</v>
+      </c>
+      <c r="K68" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,36 +3272,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F69" t="n">
-        <v>6851.7593</v>
+        <v>10026.2809</v>
       </c>
       <c r="G69" t="n">
-        <v>12.00666666666667</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="H69" t="n">
-        <v>12.18499999999998</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,36 +3315,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C70" t="n">
         <v>11.9</v>
       </c>
       <c r="D70" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
         <v>11.9</v>
       </c>
       <c r="F70" t="n">
-        <v>2000</v>
+        <v>74210.8878</v>
       </c>
       <c r="G70" t="n">
-        <v>11.99333333333333</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="H70" t="n">
-        <v>12.18166666666665</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,24 +3370,29 @@
         <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>17935.4196</v>
+        <v>62340</v>
       </c>
       <c r="G71" t="n">
-        <v>11.98666666666667</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="H71" t="n">
-        <v>12.17999999999998</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K71" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,31 +3407,36 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>16298.6776</v>
+        <v>121438.7401</v>
       </c>
       <c r="G72" t="n">
-        <v>11.98</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>12.17833333333331</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K72" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9627419354838709</v>
       </c>
     </row>
     <row r="73">
@@ -3194,36 +3444,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C73" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D73" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E73" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F73" t="n">
-        <v>16709.4957</v>
+        <v>30521.702</v>
       </c>
       <c r="G73" t="n">
-        <v>11.96666666666667</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="H73" t="n">
-        <v>12.16999999999998</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>12</v>
+      </c>
+      <c r="K73" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,36 +3487,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C74" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D74" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E74" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F74" t="n">
-        <v>48000</v>
+        <v>22343.2627</v>
       </c>
       <c r="G74" t="n">
-        <v>11.95333333333334</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="H74" t="n">
-        <v>12.16166666666664</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,36 +3530,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C75" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D75" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E75" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F75" t="n">
-        <v>13400</v>
+        <v>6530.7722</v>
       </c>
       <c r="G75" t="n">
-        <v>11.94666666666667</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>12.15166666666664</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,36 +3573,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C76" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D76" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E76" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F76" t="n">
-        <v>6187.6271</v>
+        <v>4490.1809</v>
       </c>
       <c r="G76" t="n">
-        <v>11.94</v>
+        <v>20</v>
       </c>
       <c r="H76" t="n">
-        <v>12.14166666666664</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,36 +3616,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C77" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D77" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E77" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F77" t="n">
-        <v>31844.6822</v>
+        <v>2179.6932</v>
       </c>
       <c r="G77" t="n">
-        <v>11.92666666666667</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>12.12999999999998</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,36 +3659,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C78" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D78" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E78" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F78" t="n">
-        <v>30806.7902</v>
+        <v>11839.31</v>
       </c>
       <c r="G78" t="n">
-        <v>11.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>12.11666666666664</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,36 +3702,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C79" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D79" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E79" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F79" t="n">
-        <v>2790.7651</v>
+        <v>5356.747</v>
       </c>
       <c r="G79" t="n">
-        <v>11.90666666666667</v>
+        <v>100</v>
       </c>
       <c r="H79" t="n">
-        <v>12.10499999999998</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,36 +3745,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C80" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D80" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E80" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F80" t="n">
-        <v>16740</v>
+        <v>12103.4266</v>
       </c>
       <c r="G80" t="n">
-        <v>11.89333333333334</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>12.09499999999998</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,36 +3788,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C81" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D81" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E81" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F81" t="n">
-        <v>19530</v>
+        <v>5694.8996</v>
       </c>
       <c r="G81" t="n">
-        <v>11.87333333333334</v>
+        <v>100</v>
       </c>
       <c r="H81" t="n">
-        <v>12.08499999999998</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,36 +3831,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C82" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D82" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E82" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F82" t="n">
-        <v>55013.5528</v>
-      </c>
-      <c r="G82" t="n">
-        <v>11.85333333333334</v>
-      </c>
+        <v>1715.5737</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>12.07166666666664</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,36 +3872,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C83" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D83" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E83" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F83" t="n">
-        <v>11090</v>
-      </c>
-      <c r="G83" t="n">
-        <v>11.84000000000001</v>
-      </c>
+        <v>1637.6144</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>12.06166666666664</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,36 +3913,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C84" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D84" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E84" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F84" t="n">
-        <v>16640</v>
-      </c>
-      <c r="G84" t="n">
-        <v>11.82666666666667</v>
-      </c>
+        <v>845.7306</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>12.05166666666664</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,37 +3954,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C85" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D85" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E85" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F85" t="n">
-        <v>2770</v>
-      </c>
-      <c r="G85" t="n">
-        <v>11.82000000000001</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>12.04166666666664</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
-        <v>1</v>
+        <v>12.1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1.011806722689076</v>
       </c>
     </row>
     <row r="86">
@@ -3688,36 +3995,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C86" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D86" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E86" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>5653.4166</v>
-      </c>
-      <c r="G86" t="n">
-        <v>11.80666666666667</v>
-      </c>
+        <v>980</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>12.03166666666664</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,36 +4036,35 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C87" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D87" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E87" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>2780</v>
-      </c>
-      <c r="G87" t="n">
-        <v>11.79333333333334</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>12.02166666666664</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,36 +4073,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F88" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G88" t="n">
-        <v>11.78000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H88" t="n">
-        <v>12.00999999999997</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,36 +4116,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D89" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F89" t="n">
-        <v>20448.5635</v>
+        <v>35207.8</v>
       </c>
       <c r="G89" t="n">
-        <v>11.78000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H89" t="n">
-        <v>11.99999999999998</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>12</v>
+      </c>
+      <c r="K89" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,36 +4159,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C90" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D90" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E90" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F90" t="n">
-        <v>24690</v>
+        <v>28800</v>
       </c>
       <c r="G90" t="n">
-        <v>11.78000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H90" t="n">
-        <v>11.99166666666664</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,36 +4202,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F91" t="n">
-        <v>23898.3675</v>
+        <v>12080</v>
       </c>
       <c r="G91" t="n">
-        <v>11.77333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>11.98166666666664</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,36 +4245,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D92" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F92" t="n">
-        <v>18150</v>
+        <v>5490</v>
       </c>
       <c r="G92" t="n">
-        <v>11.76666666666667</v>
+        <v>-50</v>
       </c>
       <c r="H92" t="n">
-        <v>11.96999999999998</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>12</v>
+      </c>
+      <c r="K92" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,36 +4288,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C93" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D93" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E93" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F93" t="n">
-        <v>115054.6802</v>
+        <v>25000</v>
       </c>
       <c r="G93" t="n">
-        <v>11.77333333333334</v>
+        <v>-50</v>
       </c>
       <c r="H93" t="n">
-        <v>11.95999999999998</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,40 +4331,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>21058.4608</v>
+        <v>24800</v>
       </c>
       <c r="G94" t="n">
-        <v>11.77333333333334</v>
+        <v>-20</v>
       </c>
       <c r="H94" t="n">
-        <v>11.95166666666664</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="K94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,44 +4374,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D95" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E95" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>24600</v>
+        <v>105000</v>
       </c>
       <c r="G95" t="n">
-        <v>11.76666666666667</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>11.94166666666665</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,44 +4417,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>1682.1374</v>
+        <v>40000</v>
       </c>
       <c r="G96" t="n">
-        <v>11.76</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H96" t="n">
-        <v>11.93166666666665</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="K96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,40 +4460,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C97" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F97" t="n">
-        <v>157415.4621</v>
+        <v>142334.1884</v>
       </c>
       <c r="G97" t="n">
-        <v>11.77333333333334</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>11.92833333333331</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,42 +4503,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C98" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F98" t="n">
-        <v>3520</v>
+        <v>6851.7593</v>
       </c>
       <c r="G98" t="n">
-        <v>11.78</v>
+        <v>20</v>
       </c>
       <c r="H98" t="n">
-        <v>11.92666666666665</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>12</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,42 +4546,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F99" t="n">
-        <v>791.4451</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>11.79333333333333</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>11.92499999999998</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>12</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,25 +4601,30 @@
         <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>50000</v>
+        <v>17935.4196</v>
       </c>
       <c r="G100" t="n">
-        <v>11.80666666666667</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>11.92333333333331</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
-        <v>1</v>
+        <v>11.9</v>
+      </c>
+      <c r="K100" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>0.9867355371900827</v>
       </c>
     </row>
     <row r="101">
@@ -4297,33 +4635,34 @@
         <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
         <v>12</v>
       </c>
       <c r="F101" t="n">
-        <v>20000</v>
+        <v>16298.6776</v>
       </c>
       <c r="G101" t="n">
-        <v>11.82666666666667</v>
+        <v>20</v>
       </c>
       <c r="H101" t="n">
-        <v>11.92666666666665</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="K101" t="n">
+        <v>12</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,36 +4671,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C102" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D102" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E102" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F102" t="n">
-        <v>86788.3458</v>
+        <v>16709.4957</v>
       </c>
       <c r="G102" t="n">
-        <v>11.85333333333333</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>11.92999999999998</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>12</v>
+      </c>
+      <c r="K102" t="n">
+        <v>12</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,36 +4714,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C103" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D103" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E103" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>48000</v>
       </c>
       <c r="G103" t="n">
-        <v>11.88666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>11.93333333333331</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>12</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,36 +4757,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C104" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D104" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E104" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>13400</v>
       </c>
       <c r="G104" t="n">
-        <v>11.91333333333333</v>
+        <v>-60</v>
       </c>
       <c r="H104" t="n">
-        <v>11.93499999999998</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +4796,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C105" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D105" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E105" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F105" t="n">
-        <v>14</v>
+        <v>6187.6271</v>
       </c>
       <c r="G105" t="n">
-        <v>11.94</v>
+        <v>-50</v>
       </c>
       <c r="H105" t="n">
-        <v>11.93666666666665</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +4839,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C106" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D106" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E106" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F106" t="n">
-        <v>3247.7049</v>
+        <v>31844.6822</v>
       </c>
       <c r="G106" t="n">
-        <v>11.97333333333333</v>
+        <v>-50</v>
       </c>
       <c r="H106" t="n">
-        <v>11.93833333333331</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K106" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4882,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C107" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D107" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E107" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>30806.7902</v>
       </c>
       <c r="G107" t="n">
-        <v>12</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="H107" t="n">
-        <v>11.93833333333331</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,36 +4921,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F108" t="n">
-        <v>72870.3941</v>
+        <v>2790.7651</v>
       </c>
       <c r="G108" t="n">
-        <v>12.01999999999999</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="H108" t="n">
-        <v>11.93833333333331</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K108" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,36 +4964,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C109" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D109" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E109" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F109" t="n">
-        <v>18188.3083</v>
+        <v>16740</v>
       </c>
       <c r="G109" t="n">
-        <v>12.03999999999999</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="H109" t="n">
-        <v>11.93833333333331</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,36 +5007,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C110" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D110" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E110" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F110" t="n">
-        <v>3453.5809</v>
+        <v>19530</v>
       </c>
       <c r="G110" t="n">
-        <v>12.06666666666666</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="H110" t="n">
-        <v>11.93833333333331</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K110" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,36 +5046,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C111" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D111" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E111" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F111" t="n">
-        <v>2587.6726</v>
+        <v>55013.5528</v>
       </c>
       <c r="G111" t="n">
-        <v>12.09999999999999</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="H111" t="n">
-        <v>11.93999999999998</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K111" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,36 +5089,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C112" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D112" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E112" t="n">
         <v>11.8</v>
       </c>
       <c r="F112" t="n">
-        <v>53215.6471</v>
+        <v>11090</v>
       </c>
       <c r="G112" t="n">
-        <v>12.11333333333333</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>11.93999999999998</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K112" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,36 +5132,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D113" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F113" t="n">
-        <v>13350.4581</v>
+        <v>16640</v>
       </c>
       <c r="G113" t="n">
-        <v>12.11999999999999</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>11.93833333333331</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,36 +5175,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D114" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F114" t="n">
-        <v>5120</v>
+        <v>2770</v>
       </c>
       <c r="G114" t="n">
-        <v>12.11999999999999</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>11.93666666666665</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K114" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,36 +5218,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C115" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D115" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E115" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F115" t="n">
-        <v>245.6111</v>
+        <v>5653.4166</v>
       </c>
       <c r="G115" t="n">
-        <v>12.11333333333333</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>11.93333333333331</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,36 +5261,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C116" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D116" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E116" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2667.2345</v>
+        <v>2780</v>
       </c>
       <c r="G116" t="n">
-        <v>12.09999999999999</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>11.92999999999998</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,36 +5304,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F117" t="n">
-        <v>30775.7549</v>
+        <v>100000</v>
       </c>
       <c r="G117" t="n">
-        <v>12.08666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>11.92833333333331</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,36 +5347,41 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E118" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F118" t="n">
-        <v>4340</v>
+        <v>20448.5635</v>
       </c>
       <c r="G118" t="n">
-        <v>12.07333333333333</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>11.92666666666665</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K118" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,36 +5390,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C119" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D119" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E119" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F119" t="n">
-        <v>1152.2975</v>
+        <v>24690</v>
       </c>
       <c r="G119" t="n">
-        <v>12.06666666666666</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>11.92833333333331</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K119" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,36 +5433,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C120" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D120" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E120" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F120" t="n">
-        <v>25997.1234</v>
+        <v>23898.3675</v>
       </c>
       <c r="G120" t="n">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>11.93166666666665</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,36 +5476,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D121" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E121" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F121" t="n">
-        <v>11642.3995</v>
+        <v>18150</v>
       </c>
       <c r="G121" t="n">
-        <v>12.04666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>11.93333333333331</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,37 +5519,42 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C122" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D122" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E122" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F122" t="n">
-        <v>2772.3995</v>
+        <v>115054.6802</v>
       </c>
       <c r="G122" t="n">
-        <v>12.04</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>11.93333333333331</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
-        <v>1</v>
+        <v>11.7</v>
+      </c>
+      <c r="K122" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="123">
@@ -5130,36 +5562,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C123" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F123" t="n">
-        <v>5895.7924</v>
+        <v>21058.4608</v>
       </c>
       <c r="G123" t="n">
-        <v>12.03333333333333</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>11.93499999999998</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K123" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,36 +5601,41 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C124" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D124" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E124" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F124" t="n">
-        <v>1694.6818</v>
+        <v>24600</v>
       </c>
       <c r="G124" t="n">
-        <v>12.03333333333333</v>
+        <v>-20</v>
       </c>
       <c r="H124" t="n">
-        <v>11.93833333333331</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,36 +5644,41 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C125" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D125" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E125" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F125" t="n">
-        <v>38</v>
+        <v>1682.1374</v>
       </c>
       <c r="G125" t="n">
-        <v>12.03333333333333</v>
+        <v>-20</v>
       </c>
       <c r="H125" t="n">
-        <v>11.93999999999998</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K125" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,36 +5687,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C126" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D126" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E126" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F126" t="n">
-        <v>9600</v>
+        <v>157415.4621</v>
       </c>
       <c r="G126" t="n">
-        <v>12.02666666666667</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="H126" t="n">
-        <v>11.93999999999998</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K126" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,36 +5726,41 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C127" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D127" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E127" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F127" t="n">
-        <v>14200</v>
+        <v>3520</v>
       </c>
       <c r="G127" t="n">
-        <v>12.02666666666667</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="H127" t="n">
-        <v>11.94166666666665</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K127" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,24 +5781,29 @@
         <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>826</v>
+        <v>791.4451</v>
       </c>
       <c r="G128" t="n">
-        <v>12.02666666666667</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="H128" t="n">
-        <v>11.94166666666665</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,36 +5812,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C129" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E129" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>6800</v>
+        <v>50000</v>
       </c>
       <c r="G129" t="n">
-        <v>12.03333333333333</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="H129" t="n">
-        <v>11.94333333333332</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="K129" t="n">
+        <v>12</v>
+      </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,7 +5851,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C130" t="n">
         <v>12.1</v>
@@ -5405,27 +5860,32 @@
         <v>12.1</v>
       </c>
       <c r="E130" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F130" t="n">
-        <v>73000</v>
+        <v>20000</v>
       </c>
       <c r="G130" t="n">
-        <v>12.04666666666666</v>
+        <v>66.66666666666637</v>
       </c>
       <c r="H130" t="n">
-        <v>11.94666666666665</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+        <v>12</v>
+      </c>
+      <c r="K130" t="n">
+        <v>12</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,36 +5894,41 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C131" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D131" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E131" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F131" t="n">
-        <v>16400</v>
+        <v>86788.3458</v>
       </c>
       <c r="G131" t="n">
-        <v>12.06</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="H131" t="n">
-        <v>11.94833333333332</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>12</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,36 +5937,41 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C132" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D132" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E132" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F132" t="n">
-        <v>4055.0969</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>12.06</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="H132" t="n">
-        <v>11.94833333333332</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>12</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,36 +5980,41 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D133" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F133" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G133" t="n">
-        <v>12.06</v>
+        <v>100</v>
       </c>
       <c r="H133" t="n">
-        <v>11.94999999999999</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K133" t="n">
+        <v>12</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,36 +6023,41 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C134" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D134" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E134" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F134" t="n">
-        <v>25596</v>
+        <v>14</v>
       </c>
       <c r="G134" t="n">
-        <v>12.06</v>
+        <v>100</v>
       </c>
       <c r="H134" t="n">
-        <v>11.95499999999999</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>12</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5586,36 +6066,41 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C135" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D135" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E135" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F135" t="n">
-        <v>252</v>
+        <v>3247.7049</v>
       </c>
       <c r="G135" t="n">
-        <v>12.06</v>
+        <v>100</v>
       </c>
       <c r="H135" t="n">
-        <v>11.95999999999999</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>12</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,24 +6121,29 @@
         <v>12.1</v>
       </c>
       <c r="F136" t="n">
-        <v>28200</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>12.06666666666666</v>
+        <v>50</v>
       </c>
       <c r="H136" t="n">
-        <v>11.96499999999999</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>12</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,24 +6164,29 @@
         <v>12.1</v>
       </c>
       <c r="F137" t="n">
-        <v>249</v>
+        <v>72870.3941</v>
       </c>
       <c r="G137" t="n">
-        <v>12.07333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>11.96999999999999</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>12</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,24 +6207,29 @@
         <v>12.1</v>
       </c>
       <c r="F138" t="n">
-        <v>54315.1284</v>
+        <v>18188.3083</v>
       </c>
       <c r="G138" t="n">
-        <v>12.07999999999999</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>11.97666666666666</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>12</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,36 +6238,1252 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C139" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D139" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E139" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F139" t="n">
+        <v>3453.5809</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>12</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2587.6726</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>12</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>53215.6471</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>12</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1.003333333333333</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13350.4581</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5120</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12</v>
+      </c>
+      <c r="K143" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>245.6111</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12</v>
+      </c>
+      <c r="K144" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2667.2345</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12</v>
+      </c>
+      <c r="F146" t="n">
+        <v>30775.7549</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4340</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>12</v>
+      </c>
+      <c r="K147" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1152.2975</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>12</v>
+      </c>
+      <c r="K148" t="n">
+        <v>12</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25997.1234</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>12</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11642.3995</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>12</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2772.3995</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12</v>
+      </c>
+      <c r="K151" t="n">
+        <v>12</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5895.7924</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12</v>
+      </c>
+      <c r="K152" t="n">
+        <v>12</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1694.6818</v>
+      </c>
+      <c r="G153" t="n">
+        <v>50</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>12</v>
+      </c>
+      <c r="K153" t="n">
+        <v>12</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>38</v>
+      </c>
+      <c r="G154" t="n">
+        <v>50</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9600</v>
+      </c>
+      <c r="G155" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>14200</v>
+      </c>
+      <c r="G156" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12</v>
+      </c>
+      <c r="F157" t="n">
+        <v>826</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>12</v>
+      </c>
+      <c r="K158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>73000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4055.0969</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4050</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12</v>
+      </c>
+      <c r="K162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>25596</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>12</v>
+      </c>
+      <c r="K163" t="n">
+        <v>12</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>252</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>12</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>28200</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>12</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>249</v>
+      </c>
+      <c r="G166" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>54315.1284</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F168" t="n">
         <v>1878.7213</v>
       </c>
-      <c r="G139" t="n">
-        <v>12.08666666666666</v>
-      </c>
-      <c r="H139" t="n">
-        <v>11.98333333333332</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="G168" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>55027.5522</v>
+        <v>24180.1237</v>
       </c>
       <c r="G2" t="n">
-        <v>-163087.1316999999</v>
+        <v>-95930.15039999993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>90357.24980000001</v>
+        <v>40000</v>
       </c>
       <c r="G3" t="n">
-        <v>-163087.1316999999</v>
+        <v>-55930.15039999993</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>48800</v>
+        <v>64200</v>
       </c>
       <c r="G4" t="n">
-        <v>-114287.1316999999</v>
+        <v>-120130.1503999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>33539.0294</v>
+        <v>60896.5257</v>
       </c>
       <c r="G5" t="n">
-        <v>-114287.1316999999</v>
+        <v>-59233.62469999993</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>41546.443</v>
+        <v>62528.8194</v>
       </c>
       <c r="G6" t="n">
-        <v>-114287.1316999999</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E7" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>9802.4967</v>
+        <v>21897.7596</v>
       </c>
       <c r="G7" t="n">
-        <v>-124089.6283999999</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E8" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F8" t="n">
-        <v>11682.1209</v>
+        <v>43969.1511</v>
       </c>
       <c r="G8" t="n">
-        <v>-124089.6283999999</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C9" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D9" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E9" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F9" t="n">
-        <v>81130.50750000001</v>
+        <v>35999.0421</v>
       </c>
       <c r="G9" t="n">
-        <v>-42959.12089999991</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D10" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E10" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F10" t="n">
-        <v>84079.7335</v>
+        <v>27822</v>
       </c>
       <c r="G10" t="n">
-        <v>-127038.8543999999</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C11" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D11" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E11" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F11" t="n">
-        <v>33400</v>
+        <v>39129.0949</v>
       </c>
       <c r="G11" t="n">
-        <v>-127038.8543999999</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E12" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F12" t="n">
-        <v>28842.8294</v>
+        <v>14401.3222</v>
       </c>
       <c r="G12" t="n">
-        <v>-127038.8543999999</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E13" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F13" t="n">
-        <v>33450</v>
+        <v>7625</v>
       </c>
       <c r="G13" t="n">
-        <v>-127038.8543999999</v>
+        <v>3295.194700000073</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C14" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D14" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E14" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F14" t="n">
-        <v>33460</v>
+        <v>16301.8427</v>
       </c>
       <c r="G14" t="n">
-        <v>-127038.8543999999</v>
+        <v>-13006.64799999993</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C15" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D15" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E15" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>36679.1461</v>
       </c>
       <c r="G15" t="n">
-        <v>-127038.8543999999</v>
+        <v>-13006.64799999993</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C16" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D16" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E16" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F16" t="n">
-        <v>31704.6774</v>
+        <v>43833.4328</v>
       </c>
       <c r="G16" t="n">
-        <v>-127038.8543999999</v>
+        <v>30826.78480000007</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -990,16 +990,16 @@
         <v>12.3</v>
       </c>
       <c r="F17" t="n">
-        <v>71962.439</v>
+        <v>3418.0639</v>
       </c>
       <c r="G17" t="n">
-        <v>-199001.2933999999</v>
+        <v>34244.84870000008</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C18" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D18" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E18" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>151101.5672</v>
       </c>
       <c r="G18" t="n">
-        <v>-199001.2933999999</v>
+        <v>-116856.7184999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C19" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D19" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E19" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>4587.561</v>
+        <v>10139.755</v>
       </c>
       <c r="G19" t="n">
-        <v>-194413.7323999999</v>
+        <v>-116856.7184999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>-194413.7323999999</v>
+        <v>-116856.7184999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F21" t="n">
-        <v>30100</v>
+        <v>52320.4389</v>
       </c>
       <c r="G21" t="n">
-        <v>-224513.7323999999</v>
+        <v>-64536.27959999991</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F22" t="n">
-        <v>243.9024</v>
+        <v>9200</v>
       </c>
       <c r="G22" t="n">
-        <v>-224513.7323999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C23" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D23" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E23" t="n">
         <v>12.1</v>
       </c>
       <c r="F23" t="n">
-        <v>825443.8974</v>
+        <v>9200</v>
       </c>
       <c r="G23" t="n">
-        <v>-224513.7323999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1242,10 +1242,10 @@
         <v>12.1</v>
       </c>
       <c r="F24" t="n">
-        <v>19281.4446</v>
+        <v>18640</v>
       </c>
       <c r="G24" t="n">
-        <v>-243795.1769999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D25" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F25" t="n">
-        <v>63395.5639</v>
+        <v>7841</v>
       </c>
       <c r="G25" t="n">
-        <v>-307190.7408999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>12.1</v>
       </c>
       <c r="F26" t="n">
-        <v>2790</v>
+        <v>55018.7193</v>
       </c>
       <c r="G26" t="n">
-        <v>-304400.7408999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>12.1</v>
       </c>
       <c r="F27" t="n">
-        <v>10026.2809</v>
+        <v>4157.349</v>
       </c>
       <c r="G27" t="n">
-        <v>-304400.7408999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C28" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E28" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F28" t="n">
-        <v>74210.8878</v>
+        <v>40000</v>
       </c>
       <c r="G28" t="n">
-        <v>-378611.6286999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F29" t="n">
-        <v>62340</v>
+        <v>24034.8578</v>
       </c>
       <c r="G29" t="n">
-        <v>-316271.6286999999</v>
+        <v>-73736.27959999992</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F30" t="n">
-        <v>121438.7401</v>
+        <v>55952.6509</v>
       </c>
       <c r="G30" t="n">
-        <v>-316271.6286999999</v>
+        <v>-17783.62869999992</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C31" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D31" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E31" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F31" t="n">
-        <v>30521.702</v>
+        <v>4036.2564</v>
       </c>
       <c r="G31" t="n">
-        <v>-285749.9266999999</v>
+        <v>-17783.62869999992</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>12.2</v>
       </c>
       <c r="C32" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D32" t="n">
         <v>12.2</v>
       </c>
       <c r="E32" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F32" t="n">
-        <v>22343.2627</v>
+        <v>14210.3407</v>
       </c>
       <c r="G32" t="n">
-        <v>-285749.9266999999</v>
+        <v>-17783.62869999992</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         <v>12.1</v>
       </c>
       <c r="F33" t="n">
-        <v>6530.7722</v>
+        <v>66439.88989999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-285749.9266999999</v>
+        <v>-84223.51859999992</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C34" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D34" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E34" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F34" t="n">
-        <v>4490.1809</v>
+        <v>36098.1967</v>
       </c>
       <c r="G34" t="n">
-        <v>-285749.9266999999</v>
+        <v>-48125.32189999992</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C35" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D35" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E35" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F35" t="n">
-        <v>2179.6932</v>
+        <v>99121.1057</v>
       </c>
       <c r="G35" t="n">
-        <v>-285749.9266999999</v>
+        <v>-48125.32189999992</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F36" t="n">
-        <v>11839.31</v>
+        <v>11802.5409</v>
       </c>
       <c r="G36" t="n">
-        <v>-285749.9266999999</v>
+        <v>-48125.32189999992</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>5356.747</v>
+        <v>50110</v>
       </c>
       <c r="G37" t="n">
-        <v>-285749.9266999999</v>
+        <v>-98235.32189999992</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C38" t="n">
         <v>12.1</v>
       </c>
       <c r="D38" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F38" t="n">
-        <v>12103.4266</v>
+        <v>90209.43180000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-285749.9266999999</v>
+        <v>-98235.32189999992</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>5694.8996</v>
+        <v>84840</v>
       </c>
       <c r="G39" t="n">
-        <v>-285749.9266999999</v>
+        <v>-98235.32189999992</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1715.5737</v>
+        <v>1835.7024</v>
       </c>
       <c r="G40" t="n">
-        <v>-285749.9266999999</v>
+        <v>-98235.32189999992</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1854,10 +1854,10 @@
         <v>12.1</v>
       </c>
       <c r="F41" t="n">
-        <v>1637.6144</v>
+        <v>8080</v>
       </c>
       <c r="G41" t="n">
-        <v>-285749.9266999999</v>
+        <v>-98235.32189999992</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>12.1</v>
       </c>
       <c r="F42" t="n">
-        <v>845.7306</v>
+        <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>-285749.9266999999</v>
+        <v>-98235.32189999992</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>12.1</v>
       </c>
       <c r="F43" t="n">
-        <v>462</v>
+        <v>8180</v>
       </c>
       <c r="G43" t="n">
-        <v>-285749.9266999999</v>
+        <v>-98235.32189999992</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1953,19 +1953,19 @@
         <v>12.1</v>
       </c>
       <c r="C44" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D44" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E44" t="n">
         <v>12.1</v>
       </c>
       <c r="F44" t="n">
-        <v>980</v>
+        <v>30000</v>
       </c>
       <c r="G44" t="n">
-        <v>-285749.9266999999</v>
+        <v>-68235.32189999992</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>12.1</v>
       </c>
       <c r="F45" t="n">
-        <v>370</v>
+        <v>6122.3309</v>
       </c>
       <c r="G45" t="n">
-        <v>-285749.9266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>50000</v>
+        <v>6120</v>
       </c>
       <c r="G46" t="n">
-        <v>-335749.9266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C47" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E47" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F47" t="n">
-        <v>35207.8</v>
+        <v>8530</v>
       </c>
       <c r="G47" t="n">
-        <v>-370957.7266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C48" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D48" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E48" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F48" t="n">
-        <v>28800</v>
+        <v>4270</v>
       </c>
       <c r="G48" t="n">
-        <v>-370957.7266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F49" t="n">
-        <v>12080</v>
+        <v>3233.0345</v>
       </c>
       <c r="G49" t="n">
-        <v>-358877.7266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C50" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E50" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F50" t="n">
-        <v>5490</v>
+        <v>54117.3553</v>
       </c>
       <c r="G50" t="n">
-        <v>-364367.7266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C51" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D51" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E51" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F51" t="n">
-        <v>25000</v>
+        <v>2570</v>
       </c>
       <c r="G51" t="n">
-        <v>-364367.7266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F52" t="n">
-        <v>24800</v>
+        <v>7734.0688</v>
       </c>
       <c r="G52" t="n">
-        <v>-339567.7266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C53" t="n">
         <v>12.1</v>
@@ -2283,13 +2283,13 @@
         <v>12.1</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F53" t="n">
-        <v>105000</v>
+        <v>5768.2452</v>
       </c>
       <c r="G53" t="n">
-        <v>-234567.7266999999</v>
+        <v>-74357.65279999992</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C54" t="n">
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E54" t="n">
         <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>40000</v>
+        <v>13200</v>
       </c>
       <c r="G54" t="n">
-        <v>-274567.7266999999</v>
+        <v>-87557.65279999992</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
         <v>12</v>
@@ -2355,13 +2355,13 @@
         <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>142334.1884</v>
+        <v>20000</v>
       </c>
       <c r="G55" t="n">
-        <v>-274567.7266999999</v>
+        <v>-87557.65279999992</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F56" t="n">
-        <v>6851.7593</v>
+        <v>77649.14659999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-274567.7266999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>11.9</v>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>10507.7601</v>
       </c>
       <c r="G57" t="n">
-        <v>-276567.7266999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F58" t="n">
-        <v>17935.4196</v>
+        <v>10555.346</v>
       </c>
       <c r="G58" t="n">
-        <v>-258632.3070999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F59" t="n">
-        <v>16298.6776</v>
+        <v>2802.9194</v>
       </c>
       <c r="G59" t="n">
-        <v>-258632.3070999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>11.9</v>
       </c>
       <c r="F60" t="n">
-        <v>16709.4957</v>
+        <v>3482.6087</v>
       </c>
       <c r="G60" t="n">
-        <v>-275341.8027999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F61" t="n">
-        <v>48000</v>
+        <v>2745.7818</v>
       </c>
       <c r="G61" t="n">
-        <v>-323341.8027999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F62" t="n">
-        <v>13400</v>
+        <v>1129.9435</v>
       </c>
       <c r="G62" t="n">
-        <v>-323341.8027999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F63" t="n">
-        <v>6187.6271</v>
+        <v>9088.9107</v>
       </c>
       <c r="G63" t="n">
-        <v>-323341.8027999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F64" t="n">
-        <v>31844.6822</v>
+        <v>1739.1304</v>
       </c>
       <c r="G64" t="n">
-        <v>-323341.8027999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C65" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D65" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E65" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F65" t="n">
-        <v>30806.7902</v>
+        <v>1554.715</v>
       </c>
       <c r="G65" t="n">
-        <v>-354148.5929999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F66" t="n">
-        <v>2790.7651</v>
+        <v>1733.572</v>
       </c>
       <c r="G66" t="n">
-        <v>-351357.8278999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>16740</v>
+        <v>7604.1548</v>
       </c>
       <c r="G67" t="n">
-        <v>-351357.8278999999</v>
+        <v>-165206.7993999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C68" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D68" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E68" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F68" t="n">
-        <v>19530</v>
+        <v>112008.683</v>
       </c>
       <c r="G68" t="n">
-        <v>-351357.8278999999</v>
+        <v>-53198.1163999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C69" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D69" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E69" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F69" t="n">
-        <v>55013.5528</v>
+        <v>47768.8099</v>
       </c>
       <c r="G69" t="n">
-        <v>-406371.3806999999</v>
+        <v>-53198.1163999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C70" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D70" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E70" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F70" t="n">
-        <v>11090</v>
+        <v>25264.9738</v>
       </c>
       <c r="G70" t="n">
-        <v>-395281.3806999999</v>
+        <v>-53198.1163999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C71" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="D71" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="E71" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F71" t="n">
-        <v>16640</v>
+        <v>70700.73239999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-395281.3806999999</v>
+        <v>17502.6160000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="C72" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="D72" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="E72" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="F72" t="n">
-        <v>2770</v>
+        <v>235617.2999</v>
       </c>
       <c r="G72" t="n">
-        <v>-395281.3806999999</v>
+        <v>-218114.6838999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="C73" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="D73" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="E73" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="F73" t="n">
-        <v>5653.4166</v>
+        <v>55027.5522</v>
       </c>
       <c r="G73" t="n">
-        <v>-395281.3806999999</v>
+        <v>-163087.1316999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,35 +3030,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="C74" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="D74" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="E74" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="F74" t="n">
-        <v>2780</v>
+        <v>90357.24980000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-395281.3806999999</v>
+        <v>-163087.1316999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K74" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3070,38 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="C75" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="D75" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="E75" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="F75" t="n">
-        <v>100000</v>
+        <v>48800</v>
       </c>
       <c r="G75" t="n">
-        <v>-495281.3806999999</v>
+        <v>-114287.1316999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3112,40 +3102,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="C76" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="D76" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="E76" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>20448.5635</v>
+        <v>33539.0294</v>
       </c>
       <c r="G76" t="n">
-        <v>-474832.8171999999</v>
+        <v>-114287.1316999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3156,40 +3138,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="C77" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="D77" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>24690</v>
+        <v>41546.443</v>
       </c>
       <c r="G77" t="n">
-        <v>-474832.8171999999</v>
+        <v>-114287.1316999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3200,40 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="C78" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="D78" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="E78" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="F78" t="n">
-        <v>23898.3675</v>
+        <v>9802.4967</v>
       </c>
       <c r="G78" t="n">
-        <v>-498731.1846999999</v>
+        <v>-124089.6283999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3244,40 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="C79" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="D79" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="E79" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="F79" t="n">
-        <v>18150</v>
+        <v>11682.1209</v>
       </c>
       <c r="G79" t="n">
-        <v>-498731.1846999999</v>
+        <v>-124089.6283999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3288,40 +3246,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="C80" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="D80" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="E80" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>115054.6802</v>
+        <v>81130.50750000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-383676.5044999999</v>
+        <v>-42959.12089999991</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3332,40 +3282,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="C81" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="D81" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="E81" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="F81" t="n">
-        <v>21058.4608</v>
+        <v>84079.7335</v>
       </c>
       <c r="G81" t="n">
-        <v>-383676.5044999999</v>
+        <v>-127038.8543999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3376,40 +3318,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="C82" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="D82" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="E82" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="F82" t="n">
-        <v>24600</v>
+        <v>33400</v>
       </c>
       <c r="G82" t="n">
-        <v>-408276.5044999999</v>
+        <v>-127038.8543999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3420,40 +3354,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="C83" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="D83" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="E83" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="F83" t="n">
-        <v>1682.1374</v>
+        <v>28842.8294</v>
       </c>
       <c r="G83" t="n">
-        <v>-408276.5044999999</v>
+        <v>-127038.8543999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3464,40 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="C84" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="E84" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="F84" t="n">
-        <v>157415.4621</v>
+        <v>33450</v>
       </c>
       <c r="G84" t="n">
-        <v>-250861.0423999999</v>
+        <v>-127038.8543999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3508,38 +3426,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="C85" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="D85" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="E85" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="F85" t="n">
-        <v>3520</v>
+        <v>33460</v>
       </c>
       <c r="G85" t="n">
-        <v>-250861.0423999999</v>
+        <v>-127038.8543999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3550,38 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="F86" t="n">
-        <v>791.4451</v>
+        <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>-250069.5972999998</v>
+        <v>-127038.8543999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3592,38 +3498,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="F87" t="n">
-        <v>50000</v>
+        <v>31704.6774</v>
       </c>
       <c r="G87" t="n">
-        <v>-250069.5972999998</v>
+        <v>-127038.8543999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3634,38 +3534,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="C88" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D88" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="F88" t="n">
-        <v>20000</v>
+        <v>71962.439</v>
       </c>
       <c r="G88" t="n">
-        <v>-230069.5972999998</v>
+        <v>-199001.2933999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C89" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D89" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E89" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F89" t="n">
-        <v>86788.3458</v>
+        <v>250</v>
       </c>
       <c r="G89" t="n">
-        <v>-143281.2514999998</v>
+        <v>-199001.2933999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3700,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3718,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C90" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D90" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E90" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>4587.561</v>
       </c>
       <c r="G90" t="n">
-        <v>-143281.2514999998</v>
+        <v>-194413.7323999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3742,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3760,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C91" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D91" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E91" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G91" t="n">
-        <v>-143281.2514999998</v>
+        <v>-194413.7323999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3784,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3802,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C92" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D92" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E92" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F92" t="n">
-        <v>14</v>
+        <v>30100</v>
       </c>
       <c r="G92" t="n">
-        <v>-143281.2514999998</v>
+        <v>-224513.7323999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3826,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C93" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D93" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E93" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3247.7049</v>
+        <v>243.9024</v>
       </c>
       <c r="G93" t="n">
-        <v>-143281.2514999998</v>
+        <v>-224513.7323999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3868,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3886,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C94" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D94" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E94" t="n">
         <v>12.1</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>825443.8974</v>
       </c>
       <c r="G94" t="n">
-        <v>-143291.2514999998</v>
+        <v>-224513.7323999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3910,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3940,10 +3798,10 @@
         <v>12.1</v>
       </c>
       <c r="F95" t="n">
-        <v>72870.3941</v>
+        <v>19281.4446</v>
       </c>
       <c r="G95" t="n">
-        <v>-143291.2514999998</v>
+        <v>-243795.1769999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3952,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3970,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C96" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E96" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>18188.3083</v>
+        <v>63395.5639</v>
       </c>
       <c r="G96" t="n">
-        <v>-143291.2514999998</v>
+        <v>-307190.7408999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3994,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4024,10 +3870,10 @@
         <v>12.1</v>
       </c>
       <c r="F97" t="n">
-        <v>3453.5809</v>
+        <v>2790</v>
       </c>
       <c r="G97" t="n">
-        <v>-143291.2514999998</v>
+        <v>-304400.7408999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4036,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4057,19 +3897,19 @@
         <v>12.1</v>
       </c>
       <c r="C98" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D98" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E98" t="n">
         <v>12.1</v>
       </c>
       <c r="F98" t="n">
-        <v>2587.6726</v>
+        <v>10026.2809</v>
       </c>
       <c r="G98" t="n">
-        <v>-140703.5788999998</v>
+        <v>-304400.7408999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4078,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4099,19 +3933,19 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D99" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E99" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F99" t="n">
-        <v>53215.6471</v>
+        <v>74210.8878</v>
       </c>
       <c r="G99" t="n">
-        <v>-193919.2259999998</v>
+        <v>-378611.6286999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4120,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4150,10 +3978,10 @@
         <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>13350.4581</v>
+        <v>62340</v>
       </c>
       <c r="G100" t="n">
-        <v>-207269.6840999998</v>
+        <v>-316271.6286999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4162,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4186,16 +4008,16 @@
         <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E101" t="n">
         <v>12</v>
       </c>
       <c r="F101" t="n">
-        <v>5120</v>
+        <v>121438.7401</v>
       </c>
       <c r="G101" t="n">
-        <v>-207269.6840999998</v>
+        <v>-316271.6286999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4204,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4222,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C102" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D102" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E102" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F102" t="n">
-        <v>245.6111</v>
+        <v>30521.702</v>
       </c>
       <c r="G102" t="n">
-        <v>-207515.2951999998</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4246,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4264,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C103" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D103" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E103" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F103" t="n">
-        <v>2667.2345</v>
+        <v>22343.2627</v>
       </c>
       <c r="G103" t="n">
-        <v>-207515.2951999998</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4288,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4306,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D104" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E104" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F104" t="n">
-        <v>30775.7549</v>
+        <v>6530.7722</v>
       </c>
       <c r="G104" t="n">
-        <v>-176739.5402999998</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4330,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4348,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D105" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E105" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F105" t="n">
-        <v>4340</v>
+        <v>4490.1809</v>
       </c>
       <c r="G105" t="n">
-        <v>-176739.5402999998</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4372,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4402,10 +4194,10 @@
         <v>12.1</v>
       </c>
       <c r="F106" t="n">
-        <v>1152.2975</v>
+        <v>2179.6932</v>
       </c>
       <c r="G106" t="n">
-        <v>-175587.2427999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4414,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4441,13 +4227,13 @@
         <v>12.1</v>
       </c>
       <c r="E107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>25997.1234</v>
+        <v>11839.31</v>
       </c>
       <c r="G107" t="n">
-        <v>-175587.2427999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4456,14 +4242,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4474,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F108" t="n">
-        <v>11642.3995</v>
+        <v>5356.747</v>
       </c>
       <c r="G108" t="n">
-        <v>-187229.6422999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4498,14 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4516,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D109" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E109" t="n">
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>2772.3995</v>
+        <v>12103.4266</v>
       </c>
       <c r="G109" t="n">
-        <v>-187229.6422999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4540,14 +4314,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4558,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C110" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D110" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F110" t="n">
-        <v>5895.7924</v>
+        <v>5694.8996</v>
       </c>
       <c r="G110" t="n">
-        <v>-187229.6422999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4582,14 +4350,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4612,10 +4374,10 @@
         <v>12.1</v>
       </c>
       <c r="F111" t="n">
-        <v>1694.6818</v>
+        <v>1715.5737</v>
       </c>
       <c r="G111" t="n">
-        <v>-185534.9604999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4624,14 +4386,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4654,10 +4410,10 @@
         <v>12.1</v>
       </c>
       <c r="F112" t="n">
-        <v>38</v>
+        <v>1637.6144</v>
       </c>
       <c r="G112" t="n">
-        <v>-185534.9604999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4666,14 +4422,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4696,10 +4446,10 @@
         <v>12.1</v>
       </c>
       <c r="F113" t="n">
-        <v>9600</v>
+        <v>845.7306</v>
       </c>
       <c r="G113" t="n">
-        <v>-185534.9604999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4708,14 +4458,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4738,10 +4482,10 @@
         <v>12.1</v>
       </c>
       <c r="F114" t="n">
-        <v>14200</v>
+        <v>462</v>
       </c>
       <c r="G114" t="n">
-        <v>-185534.9604999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4750,14 +4494,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4768,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D115" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F115" t="n">
-        <v>826</v>
+        <v>980</v>
       </c>
       <c r="G115" t="n">
-        <v>-186360.9604999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4792,14 +4530,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4822,10 +4554,10 @@
         <v>12.1</v>
       </c>
       <c r="F116" t="n">
-        <v>6800</v>
+        <v>370</v>
       </c>
       <c r="G116" t="n">
-        <v>-179560.9604999999</v>
+        <v>-285749.9266999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4834,14 +4566,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4852,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C117" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F117" t="n">
-        <v>73000</v>
+        <v>50000</v>
       </c>
       <c r="G117" t="n">
-        <v>-179560.9604999999</v>
+        <v>-335749.9266999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4876,14 +4602,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4894,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C118" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F118" t="n">
-        <v>16400</v>
+        <v>35207.8</v>
       </c>
       <c r="G118" t="n">
-        <v>-179560.9604999999</v>
+        <v>-370957.7266999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4918,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4936,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D119" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F119" t="n">
-        <v>4055.0969</v>
+        <v>28800</v>
       </c>
       <c r="G119" t="n">
-        <v>-183616.0573999999</v>
+        <v>-370957.7266999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4960,14 +4674,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4990,26 +4698,24 @@
         <v>12</v>
       </c>
       <c r="F120" t="n">
-        <v>4050</v>
+        <v>12080</v>
       </c>
       <c r="G120" t="n">
-        <v>-183616.0573999999</v>
+        <v>-358877.7266999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5020,22 +4726,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D121" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F121" t="n">
-        <v>25596</v>
+        <v>5490</v>
       </c>
       <c r="G121" t="n">
-        <v>-158020.0573999999</v>
+        <v>-364367.7266999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5045,11 +4751,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -5062,22 +4768,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C122" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D122" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E122" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F122" t="n">
-        <v>252</v>
+        <v>25000</v>
       </c>
       <c r="G122" t="n">
-        <v>-158020.0573999999</v>
+        <v>-364367.7266999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5087,7 +4793,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5104,22 +4810,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
-        <v>28200</v>
+        <v>24800</v>
       </c>
       <c r="G123" t="n">
-        <v>-158020.0573999999</v>
+        <v>-339567.7266999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5129,7 +4835,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5146,7 +4852,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C124" t="n">
         <v>12.1</v>
@@ -5155,13 +4861,13 @@
         <v>12.1</v>
       </c>
       <c r="E124" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F124" t="n">
-        <v>249</v>
+        <v>105000</v>
       </c>
       <c r="G124" t="n">
-        <v>-158020.0573999999</v>
+        <v>-234567.7266999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5171,7 +4877,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5188,22 +4894,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C125" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D125" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F125" t="n">
-        <v>54315.1284</v>
+        <v>40000</v>
       </c>
       <c r="G125" t="n">
-        <v>-158020.0573999999</v>
+        <v>-274567.7266999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5213,7 +4919,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5230,22 +4936,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C126" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E126" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F126" t="n">
-        <v>1878.7213</v>
+        <v>142334.1884</v>
       </c>
       <c r="G126" t="n">
-        <v>-156141.3360999999</v>
+        <v>-274567.7266999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5255,17 +4961,3017 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6851.7593</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-274567.7266999999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-276567.7266999999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17935.4196</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-258632.3070999999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12</v>
+      </c>
+      <c r="F130" t="n">
+        <v>16298.6776</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-258632.3070999999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16709.4957</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-275341.8027999999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>11.8</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="C132" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>48000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-323341.8027999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>13400</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-323341.8027999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6187.6271</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-323341.8027999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>31844.6822</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-323341.8027999999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>30806.7902</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-354148.5929999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2790.7651</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-351357.8278999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16740</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-351357.8278999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>19530</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-351357.8278999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>55013.5528</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-406371.3806999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>11090</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-395281.3806999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16640</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-395281.3806999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2770</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-395281.3806999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5653.4166</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-395281.3806999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2780</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-395281.3806999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-495281.3806999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>20448.5635</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-474832.8171999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>24690</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-474832.8171999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K148" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>23898.3675</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-498731.1846999999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K149" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>18150</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-498731.1846999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K150" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>115054.6802</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-383676.5044999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K151" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>21058.4608</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-383676.5044999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K152" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>24600</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-408276.5044999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K153" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1682.1374</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-408276.5044999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K154" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>157415.4621</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-250861.0423999999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3520</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-250861.0423999999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12</v>
+      </c>
+      <c r="F157" t="n">
+        <v>791.4451</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-250069.5972999998</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12</v>
+      </c>
+      <c r="F158" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-250069.5972999998</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12</v>
+      </c>
+      <c r="F159" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-230069.5972999998</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>86788.3458</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-143281.2514999998</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-143281.2514999998</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>20</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-143281.2514999998</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>14</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-143281.2514999998</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3247.7049</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-143281.2514999998</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-143291.2514999998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>72870.3941</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-143291.2514999998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>18188.3083</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-143291.2514999998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3453.5809</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-143291.2514999998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2587.6726</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-140703.5788999998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>53215.6471</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-193919.2259999998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13350.4581</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-207269.6840999998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5120</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-207269.6840999998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>245.6111</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-207515.2951999998</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2667.2345</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-207515.2951999998</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30775.7549</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-176739.5402999998</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4340</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-176739.5402999998</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1152.2975</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-175587.2427999999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>25997.1234</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-175587.2427999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12</v>
+      </c>
+      <c r="F179" t="n">
+        <v>11642.3995</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-187229.6422999999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2772.3995</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-187229.6422999999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5895.7924</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-187229.6422999999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1694.6818</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-185534.9604999999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>38</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-185534.9604999999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9600</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-185534.9604999999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14200</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-185534.9604999999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12</v>
+      </c>
+      <c r="F186" t="n">
+        <v>826</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-186360.9604999999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-179560.9604999999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>73000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-179560.9604999999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>16400</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-179560.9604999999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4055.0969</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-183616.0573999999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12</v>
+      </c>
+      <c r="C191" t="n">
+        <v>12</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4050</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-183616.0573999999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>25596</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-158020.0573999999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>252</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-158020.0573999999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>28200</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-158020.0573999999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>249</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-158020.0573999999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>54315.1284</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-158020.0573999999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1878.7213</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-156141.3360999999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-95930.15039999993</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>-55930.15039999993</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +523,21 @@
         <v>-120130.1503999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,21 @@
         <v>-59233.62469999993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +601,21 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +642,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +679,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +716,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +753,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +790,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +825,21 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +864,21 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +903,21 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +942,21 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +981,21 @@
         <v>30826.78480000007</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1020,21 @@
         <v>34244.84870000008</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1061,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1098,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1135,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1172,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1209,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1246,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1283,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1320,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1357,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1394,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1431,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1468,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1505,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1542,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1579,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1616,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1653,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1690,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1727,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1764,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1801,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1838,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1875,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1912,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1949,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1986,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +2023,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2060,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2097,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2134,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2171,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2208,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2245,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2282,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2319,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2356,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2393,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2430,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2467,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2504,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2541,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2578,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2615,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2652,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2689,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2726,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2763,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2800,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2837,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2874,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2911,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2948,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2985,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +3022,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +3059,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +3096,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3133,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3170,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3207,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3244,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +3279,17 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3314,15 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3347,15 @@
         <v>-42959.12089999991</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3380,15 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3413,15 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3446,15 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3479,15 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3512,15 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3545,15 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3578,15 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3613,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3644,15 @@
         <v>-199001.2933999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3677,15 @@
         <v>-194413.7323999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3712,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3745,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3776,15 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3811,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3842,15 @@
         <v>-243795.1769999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3875,15 @@
         <v>-307190.7408999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3908,15 @@
         <v>-304400.7408999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3943,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3976,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +4009,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +4040,15 @@
         <v>-316271.6286999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +4073,15 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +4106,15 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +4139,15 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +4172,15 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4207,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4238,15 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4273,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4306,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4339,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4372,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4405,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4438,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4471,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4504,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4537,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4570,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4603,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4636,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,22 +4667,15 @@
         <v>-358877.7266999999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4746,22 +4702,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4788,22 +4735,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4830,22 +4768,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4872,22 +4801,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4914,22 +4834,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4956,22 +4867,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4998,22 +4900,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5040,22 +4933,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5082,22 +4966,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5124,22 +4999,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5166,22 +5032,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5208,22 +5065,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5250,22 +5098,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5292,22 +5131,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5334,22 +5164,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5376,22 +5197,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5416,26 +5228,15 @@
         <v>-351357.8278999999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K137" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5462,22 +5263,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5504,22 +5296,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5546,22 +5329,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5588,22 +5362,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5630,22 +5395,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5672,22 +5428,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5714,22 +5461,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5756,22 +5494,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5798,22 +5527,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5840,22 +5560,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5880,26 +5591,21 @@
         <v>-474832.8171999999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
         <v>11.8</v>
       </c>
-      <c r="K148" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5924,26 +5630,21 @@
         <v>-498731.1846999999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
         <v>11.8</v>
       </c>
-      <c r="K149" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5968,26 +5669,21 @@
         <v>-498731.1846999999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
         <v>11.7</v>
       </c>
-      <c r="K150" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6012,26 +5708,21 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
         <v>11.7</v>
       </c>
-      <c r="K151" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6056,26 +5747,21 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
         <v>11.8</v>
       </c>
-      <c r="K152" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6100,26 +5786,19 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K153" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6144,26 +5823,21 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
         <v>11.7</v>
       </c>
-      <c r="K154" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6188,26 +5862,21 @@
         <v>-250861.0423999999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
         <v>11.7</v>
       </c>
-      <c r="K155" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6232,24 +5901,21 @@
         <v>-250861.0423999999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6276,22 +5942,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6316,24 +5977,21 @@
         <v>-250069.5972999998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6360,22 +6018,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6402,22 +6055,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6444,22 +6092,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6486,22 +6129,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6528,22 +6166,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6570,22 +6203,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6612,22 +6240,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6654,22 +6277,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6696,22 +6314,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6738,22 +6351,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6780,22 +6388,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6822,22 +6425,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6864,22 +6462,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6906,22 +6499,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6948,22 +6536,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6990,22 +6573,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7032,22 +6610,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7074,22 +6647,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7116,22 +6684,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7158,22 +6721,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7200,22 +6758,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7242,22 +6795,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7284,22 +6832,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7326,22 +6869,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7368,22 +6906,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7410,22 +6943,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7450,24 +6978,19 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7492,24 +7015,19 @@
         <v>-186360.9604999999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7536,22 +7054,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7576,24 +7089,19 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7620,22 +7128,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7662,22 +7165,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7704,22 +7202,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7746,22 +7239,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7788,22 +7276,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7830,22 +7313,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7872,22 +7350,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7914,22 +7387,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7956,24 +7424,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-95930.15039999993</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-55930.15039999993</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-120130.1503999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-59233.62469999993</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -755,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -792,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,17 +781,11 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -864,17 +814,11 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -903,17 +847,11 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -942,17 +880,11 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -981,17 +913,11 @@
         <v>30826.78480000007</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1020,17 +946,11 @@
         <v>34244.84870000008</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1100,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1137,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1174,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1211,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1248,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1285,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1322,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1359,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1433,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1470,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1544,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1581,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1618,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1692,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1766,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1836,15 +1672,11 @@
         <v>-98235.32189999992</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1873,15 +1705,11 @@
         <v>-98235.32189999992</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1910,15 +1738,11 @@
         <v>-98235.32189999992</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2099,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2136,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2173,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2243,15 +2035,11 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2280,15 +2068,11 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2317,15 +2101,11 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2354,15 +2134,11 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2391,15 +2167,11 @@
         <v>-87557.65279999992</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2428,15 +2200,11 @@
         <v>-87557.65279999992</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2465,15 +2233,11 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2502,15 +2266,11 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2539,15 +2299,11 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2576,15 +2332,11 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2613,15 +2365,11 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2650,15 +2398,11 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2691,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2765,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3172,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3209,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3279,16 +2959,14 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
       <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3314,7 +2992,7 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3347,7 +3025,7 @@
         <v>-42959.12089999991</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3380,7 +3058,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3413,7 +3091,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3446,7 +3124,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3479,7 +3157,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3512,7 +3190,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3545,7 +3223,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3578,7 +3256,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3611,7 +3289,7 @@
         <v>-199001.2933999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3644,7 +3322,7 @@
         <v>-199001.2933999999</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3677,7 +3355,7 @@
         <v>-194413.7323999999</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3710,7 +3388,7 @@
         <v>-194413.7323999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3743,7 +3421,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3776,7 +3454,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3809,7 +3487,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3842,7 +3520,7 @@
         <v>-243795.1769999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3875,7 +3553,7 @@
         <v>-307190.7408999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3908,7 +3586,7 @@
         <v>-304400.7408999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3941,7 +3619,7 @@
         <v>-304400.7408999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3974,7 +3652,7 @@
         <v>-378611.6286999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4007,7 +3685,7 @@
         <v>-316271.6286999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4040,7 +3718,7 @@
         <v>-316271.6286999999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4073,7 +3751,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4106,7 +3784,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4139,7 +3817,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4172,7 +3850,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4238,7 +3916,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4271,7 +3949,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4304,7 +3982,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4337,7 +4015,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4370,7 +4048,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4403,7 +4081,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4436,7 +4114,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4469,7 +4147,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4502,7 +4180,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4535,7 +4213,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4568,7 +4246,7 @@
         <v>-335749.9266999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4601,7 +4279,7 @@
         <v>-370957.7266999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5591,17 +5269,11 @@
         <v>-474832.8171999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5630,17 +5302,15 @@
         <v>-498731.1846999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>11.8</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5669,15 +5339,17 @@
         <v>-498731.1846999999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>11.7</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5708,15 +5380,17 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>11.7</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -5747,17 +5421,15 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>11.8</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5786,13 +5458,17 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J153" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5823,15 +5499,17 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>11.7</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5862,17 +5540,15 @@
         <v>-250861.0423999999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>11.7</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5901,15 +5577,15 @@
         <v>-250861.0423999999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5943,10 +5619,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5977,17 +5655,11 @@
         <v>-250069.5972999998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6020,11 +5692,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6057,11 +5725,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +5758,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6131,11 +5791,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6168,11 +5824,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6205,11 +5857,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +5890,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6279,11 +5923,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6316,11 +5956,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6353,11 +5989,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6022,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6427,11 +6055,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6088,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6121,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6538,11 +6154,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6575,11 +6187,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6220,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6253,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6686,11 +6286,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6723,11 +6319,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6760,11 +6352,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6797,11 +6385,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6834,11 +6418,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6871,11 +6451,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6908,11 +6484,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6945,11 +6517,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6978,15 +6546,11 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7015,15 +6579,11 @@
         <v>-186360.9604999999</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +6616,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7089,15 +6645,11 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +6682,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7167,11 +6715,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +6748,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +6781,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7278,11 +6814,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +6847,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7352,11 +6880,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7389,11 +6913,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7426,17 +6946,13 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>30826.78480000007</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>34244.84870000008</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-64536.27959999991</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-84223.51859999992</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-48125.32189999992</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-98235.32189999992</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-98235.32189999992</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-98235.32189999992</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-74357.65279999992</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-87557.65279999992</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-87557.65279999992</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-165206.7993999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-199001.2933999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-199001.2933999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-194413.7323999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-194413.7323999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-243795.1769999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-307190.7408999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-304400.7408999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-304400.7408999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-378611.6286999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-316271.6286999999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-316271.6286999999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-285749.9266999999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-335749.9266999999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-370957.7266999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5421,14 +5421,10 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J152" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
@@ -5458,97 +5454,89 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1682.1374</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-408276.5044999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>11.8</v>
       </c>
-      <c r="J153" t="n">
+      <c r="C155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12</v>
+      </c>
+      <c r="E155" t="n">
         <v>11.8</v>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="F155" t="n">
+        <v>157415.4621</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-250861.0423999999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1682.1374</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-408276.5044999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D155" t="n">
-        <v>12</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F155" t="n">
-        <v>157415.4621</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-250861.0423999999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5619,14 +5607,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6480,7 +6462,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6513,7 +6495,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6546,7 +6528,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6579,7 +6561,7 @@
         <v>-186360.9604999999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6612,7 +6594,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6678,7 +6660,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6711,7 +6693,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6744,7 +6726,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6777,7 +6759,7 @@
         <v>-158020.0573999999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6953,6 +6935,6 @@
       <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -616,7 +616,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>30826.78480000007</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>34244.84870000008</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-64536.27959999991</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-84223.51859999992</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-48125.32189999992</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-163087.1316999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-114287.1316999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-114287.1316999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-42959.12089999991</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-243795.1769999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -5421,10 +5421,14 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J152" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
@@ -5454,11 +5458,19 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J153" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5493,9 +5505,13 @@
         <v>11.7</v>
       </c>
       <c r="J154" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5548,7 @@
       <c r="J155" t="n">
         <v>11.7</v>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5565,9 +5577,11 @@
         <v>-250861.0423999999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J156" t="n">
         <v>11.7</v>
       </c>
@@ -5607,8 +5621,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6462,7 +6482,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6495,7 +6515,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6528,7 +6548,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6561,7 +6581,7 @@
         <v>-186360.9604999999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6594,7 +6614,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6660,7 +6680,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6693,7 +6713,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6726,7 +6746,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6759,7 +6779,7 @@
         <v>-158020.0573999999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest LBA.xlsx
+++ b/BackTest/2019-10-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>24180.1237</v>
       </c>
       <c r="G2" t="n">
-        <v>-95930.15039999993</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>40000</v>
       </c>
       <c r="G3" t="n">
-        <v>-55930.15039999993</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>64200</v>
       </c>
       <c r="G4" t="n">
-        <v>-120130.1503999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>60896.5257</v>
       </c>
       <c r="G5" t="n">
-        <v>-59233.62469999993</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>62528.8194</v>
       </c>
       <c r="G6" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>21897.7596</v>
       </c>
       <c r="G7" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>43969.1511</v>
       </c>
       <c r="G8" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>35999.0421</v>
       </c>
       <c r="G9" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>27822</v>
       </c>
       <c r="G10" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>39129.0949</v>
       </c>
       <c r="G11" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>14401.3222</v>
       </c>
       <c r="G12" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>7625</v>
       </c>
       <c r="G13" t="n">
-        <v>3295.194700000073</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>16301.8427</v>
       </c>
       <c r="G14" t="n">
-        <v>-13006.64799999993</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>36679.1461</v>
       </c>
       <c r="G15" t="n">
-        <v>-13006.64799999993</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>43833.4328</v>
       </c>
       <c r="G16" t="n">
-        <v>30826.78480000007</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3418.0639</v>
       </c>
       <c r="G17" t="n">
-        <v>34244.84870000008</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>151101.5672</v>
       </c>
       <c r="G18" t="n">
-        <v>-116856.7184999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>10139.755</v>
       </c>
       <c r="G19" t="n">
-        <v>-116856.7184999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>-116856.7184999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>52320.4389</v>
       </c>
       <c r="G21" t="n">
-        <v>-64536.27959999991</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>9200</v>
       </c>
       <c r="G22" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9200</v>
       </c>
       <c r="G23" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>18640</v>
       </c>
       <c r="G24" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7841</v>
       </c>
       <c r="G25" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>55018.7193</v>
       </c>
       <c r="G26" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4157.349</v>
       </c>
       <c r="G27" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>40000</v>
       </c>
       <c r="G28" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>24034.8578</v>
       </c>
       <c r="G29" t="n">
-        <v>-73736.27959999992</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>55952.6509</v>
       </c>
       <c r="G30" t="n">
-        <v>-17783.62869999992</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4036.2564</v>
       </c>
       <c r="G31" t="n">
-        <v>-17783.62869999992</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>14210.3407</v>
       </c>
       <c r="G32" t="n">
-        <v>-17783.62869999992</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>66439.88989999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-84223.51859999992</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>36098.1967</v>
       </c>
       <c r="G34" t="n">
-        <v>-48125.32189999992</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>99121.1057</v>
       </c>
       <c r="G35" t="n">
-        <v>-48125.32189999992</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>11802.5409</v>
       </c>
       <c r="G36" t="n">
-        <v>-48125.32189999992</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>50110</v>
       </c>
       <c r="G37" t="n">
-        <v>-98235.32189999992</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>90209.43180000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-98235.32189999992</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>84840</v>
       </c>
       <c r="G39" t="n">
-        <v>-98235.32189999992</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1835.7024</v>
       </c>
       <c r="G40" t="n">
-        <v>-98235.32189999992</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>8080</v>
       </c>
       <c r="G41" t="n">
-        <v>-98235.32189999992</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>-98235.32189999992</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>8180</v>
       </c>
       <c r="G43" t="n">
-        <v>-98235.32189999992</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>30000</v>
       </c>
       <c r="G44" t="n">
-        <v>-68235.32189999992</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>6122.3309</v>
       </c>
       <c r="G45" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>6120</v>
       </c>
       <c r="G46" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>8530</v>
       </c>
       <c r="G47" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>4270</v>
       </c>
       <c r="G48" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>3233.0345</v>
       </c>
       <c r="G49" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>54117.3553</v>
       </c>
       <c r="G50" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2570</v>
       </c>
       <c r="G51" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>7734.0688</v>
       </c>
       <c r="G52" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5768.2452</v>
       </c>
       <c r="G53" t="n">
-        <v>-74357.65279999992</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>13200</v>
       </c>
       <c r="G54" t="n">
-        <v>-87557.65279999992</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>20000</v>
       </c>
       <c r="G55" t="n">
-        <v>-87557.65279999992</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>77649.14659999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>10507.7601</v>
       </c>
       <c r="G57" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>10555.346</v>
       </c>
       <c r="G58" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,19 @@
         <v>2802.9194</v>
       </c>
       <c r="G59" t="n">
-        <v>-165206.7993999999</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2187,21 @@
         <v>3482.6087</v>
       </c>
       <c r="G60" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2223,21 @@
         <v>2745.7818</v>
       </c>
       <c r="G61" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>1129.9435</v>
       </c>
       <c r="G62" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,15 @@
         <v>9088.9107</v>
       </c>
       <c r="G63" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2319,15 @@
         <v>1739.1304</v>
       </c>
       <c r="G64" t="n">
-        <v>-165206.7993999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2349,19 @@
         <v>1554.715</v>
       </c>
       <c r="G65" t="n">
-        <v>-165206.7993999999</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2383,23 @@
         <v>1733.572</v>
       </c>
       <c r="G66" t="n">
-        <v>-165206.7993999999</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2421,23 @@
         <v>7604.1548</v>
       </c>
       <c r="G67" t="n">
-        <v>-165206.7993999999</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2459,19 @@
         <v>112008.683</v>
       </c>
       <c r="G68" t="n">
-        <v>-53198.1163999999</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2493,23 @@
         <v>47768.8099</v>
       </c>
       <c r="G69" t="n">
-        <v>-53198.1163999999</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2531,21 @@
         <v>25264.9738</v>
       </c>
       <c r="G70" t="n">
-        <v>-53198.1163999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2567,15 @@
         <v>70700.73239999999</v>
       </c>
       <c r="G71" t="n">
-        <v>17502.6160000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2597,15 @@
         <v>235617.2999</v>
       </c>
       <c r="G72" t="n">
-        <v>-218114.6838999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2627,15 @@
         <v>55027.5522</v>
       </c>
       <c r="G73" t="n">
-        <v>-163087.1316999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2657,15 @@
         <v>90357.24980000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-163087.1316999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2687,15 @@
         <v>48800</v>
       </c>
       <c r="G75" t="n">
-        <v>-114287.1316999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2717,15 @@
         <v>33539.0294</v>
       </c>
       <c r="G76" t="n">
-        <v>-114287.1316999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2747,15 @@
         <v>41546.443</v>
       </c>
       <c r="G77" t="n">
-        <v>-114287.1316999999</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2777,15 @@
         <v>9802.4967</v>
       </c>
       <c r="G78" t="n">
-        <v>-124089.6283999999</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2807,15 @@
         <v>11682.1209</v>
       </c>
       <c r="G79" t="n">
-        <v>-124089.6283999999</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2837,15 @@
         <v>81130.50750000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-42959.12089999991</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2867,15 @@
         <v>84079.7335</v>
       </c>
       <c r="G81" t="n">
-        <v>-127038.8543999999</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2897,15 @@
         <v>33400</v>
       </c>
       <c r="G82" t="n">
-        <v>-127038.8543999999</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2927,15 @@
         <v>28842.8294</v>
       </c>
       <c r="G83" t="n">
-        <v>-127038.8543999999</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2957,15 @@
         <v>33450</v>
       </c>
       <c r="G84" t="n">
-        <v>-127038.8543999999</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2987,15 @@
         <v>33460</v>
       </c>
       <c r="G85" t="n">
-        <v>-127038.8543999999</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3017,15 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>-127038.8543999999</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3047,15 @@
         <v>31704.6774</v>
       </c>
       <c r="G87" t="n">
-        <v>-127038.8543999999</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3077,15 @@
         <v>71962.439</v>
       </c>
       <c r="G88" t="n">
-        <v>-199001.2933999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3107,15 @@
         <v>250</v>
       </c>
       <c r="G89" t="n">
-        <v>-199001.2933999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3137,15 @@
         <v>4587.561</v>
       </c>
       <c r="G90" t="n">
-        <v>-194413.7323999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3167,15 @@
         <v>1500</v>
       </c>
       <c r="G91" t="n">
-        <v>-194413.7323999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3197,15 @@
         <v>30100</v>
       </c>
       <c r="G92" t="n">
-        <v>-224513.7323999999</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3227,15 @@
         <v>243.9024</v>
       </c>
       <c r="G93" t="n">
-        <v>-224513.7323999999</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3257,15 @@
         <v>825443.8974</v>
       </c>
       <c r="G94" t="n">
-        <v>-224513.7323999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3287,15 @@
         <v>19281.4446</v>
       </c>
       <c r="G95" t="n">
-        <v>-243795.1769999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3317,15 @@
         <v>63395.5639</v>
       </c>
       <c r="G96" t="n">
-        <v>-307190.7408999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3347,15 @@
         <v>2790</v>
       </c>
       <c r="G97" t="n">
-        <v>-304400.7408999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3377,15 @@
         <v>10026.2809</v>
       </c>
       <c r="G98" t="n">
-        <v>-304400.7408999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3407,15 @@
         <v>74210.8878</v>
       </c>
       <c r="G99" t="n">
-        <v>-378611.6286999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3437,15 @@
         <v>62340</v>
       </c>
       <c r="G100" t="n">
-        <v>-316271.6286999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3467,15 @@
         <v>121438.7401</v>
       </c>
       <c r="G101" t="n">
-        <v>-316271.6286999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3497,15 @@
         <v>30521.702</v>
       </c>
       <c r="G102" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3527,15 @@
         <v>22343.2627</v>
       </c>
       <c r="G103" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3557,15 @@
         <v>6530.7722</v>
       </c>
       <c r="G104" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3587,15 @@
         <v>4490.1809</v>
       </c>
       <c r="G105" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3617,15 @@
         <v>2179.6932</v>
       </c>
       <c r="G106" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3647,15 @@
         <v>11839.31</v>
       </c>
       <c r="G107" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3677,15 @@
         <v>5356.747</v>
       </c>
       <c r="G108" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3707,15 @@
         <v>12103.4266</v>
       </c>
       <c r="G109" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3737,15 @@
         <v>5694.8996</v>
       </c>
       <c r="G110" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3767,15 @@
         <v>1715.5737</v>
       </c>
       <c r="G111" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3797,15 @@
         <v>1637.6144</v>
       </c>
       <c r="G112" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3827,15 @@
         <v>845.7306</v>
       </c>
       <c r="G113" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3857,15 @@
         <v>462</v>
       </c>
       <c r="G114" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3887,15 @@
         <v>980</v>
       </c>
       <c r="G115" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3917,15 @@
         <v>370</v>
       </c>
       <c r="G116" t="n">
-        <v>-285749.9266999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3947,15 @@
         <v>50000</v>
       </c>
       <c r="G117" t="n">
-        <v>-335749.9266999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3977,15 @@
         <v>35207.8</v>
       </c>
       <c r="G118" t="n">
-        <v>-370957.7266999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4007,15 @@
         <v>28800</v>
       </c>
       <c r="G119" t="n">
-        <v>-370957.7266999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4037,15 @@
         <v>12080</v>
       </c>
       <c r="G120" t="n">
-        <v>-358877.7266999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4067,15 @@
         <v>5490</v>
       </c>
       <c r="G121" t="n">
-        <v>-364367.7266999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4097,15 @@
         <v>25000</v>
       </c>
       <c r="G122" t="n">
-        <v>-364367.7266999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4127,15 @@
         <v>24800</v>
       </c>
       <c r="G123" t="n">
-        <v>-339567.7266999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4157,15 @@
         <v>105000</v>
       </c>
       <c r="G124" t="n">
-        <v>-234567.7266999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4187,15 @@
         <v>40000</v>
       </c>
       <c r="G125" t="n">
-        <v>-274567.7266999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4217,15 @@
         <v>142334.1884</v>
       </c>
       <c r="G126" t="n">
-        <v>-274567.7266999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4247,15 @@
         <v>6851.7593</v>
       </c>
       <c r="G127" t="n">
-        <v>-274567.7266999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4277,15 @@
         <v>2000</v>
       </c>
       <c r="G128" t="n">
-        <v>-276567.7266999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4307,15 @@
         <v>17935.4196</v>
       </c>
       <c r="G129" t="n">
-        <v>-258632.3070999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4337,15 @@
         <v>16298.6776</v>
       </c>
       <c r="G130" t="n">
-        <v>-258632.3070999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4367,15 @@
         <v>16709.4957</v>
       </c>
       <c r="G131" t="n">
-        <v>-275341.8027999999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4397,15 @@
         <v>48000</v>
       </c>
       <c r="G132" t="n">
-        <v>-323341.8027999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4427,15 @@
         <v>13400</v>
       </c>
       <c r="G133" t="n">
-        <v>-323341.8027999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4457,15 @@
         <v>6187.6271</v>
       </c>
       <c r="G134" t="n">
-        <v>-323341.8027999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4487,15 @@
         <v>31844.6822</v>
       </c>
       <c r="G135" t="n">
-        <v>-323341.8027999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4517,15 @@
         <v>30806.7902</v>
       </c>
       <c r="G136" t="n">
-        <v>-354148.5929999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4547,15 @@
         <v>2790.7651</v>
       </c>
       <c r="G137" t="n">
-        <v>-351357.8278999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4577,15 @@
         <v>16740</v>
       </c>
       <c r="G138" t="n">
-        <v>-351357.8278999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4607,15 @@
         <v>19530</v>
       </c>
       <c r="G139" t="n">
-        <v>-351357.8278999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4637,15 @@
         <v>55013.5528</v>
       </c>
       <c r="G140" t="n">
-        <v>-406371.3806999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4667,19 @@
         <v>11090</v>
       </c>
       <c r="G141" t="n">
-        <v>-395281.3806999999</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4701,23 @@
         <v>16640</v>
       </c>
       <c r="G142" t="n">
-        <v>-395281.3806999999</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4739,23 @@
         <v>2770</v>
       </c>
       <c r="G143" t="n">
-        <v>-395281.3806999999</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4777,23 @@
         <v>5653.4166</v>
       </c>
       <c r="G144" t="n">
-        <v>-395281.3806999999</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="I144" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4815,23 @@
         <v>2780</v>
       </c>
       <c r="G145" t="n">
-        <v>-395281.3806999999</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="I145" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4853,23 @@
         <v>100000</v>
       </c>
       <c r="G146" t="n">
-        <v>-495281.3806999999</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="I146" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4891,23 @@
         <v>20448.5635</v>
       </c>
       <c r="G147" t="n">
-        <v>-474832.8171999999</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4929,23 @@
         <v>24690</v>
       </c>
       <c r="G148" t="n">
-        <v>-474832.8171999999</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="I148" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,22 +4967,23 @@
         <v>23898.3675</v>
       </c>
       <c r="G149" t="n">
-        <v>-498731.1846999999</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="I149" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J149" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5336,26 +5005,23 @@
         <v>18150</v>
       </c>
       <c r="G150" t="n">
-        <v>-498731.1846999999</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I150" t="n">
         <v>11.7</v>
       </c>
-      <c r="J150" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5377,26 +5043,23 @@
         <v>115054.6802</v>
       </c>
       <c r="G151" t="n">
-        <v>-383676.5044999999</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I151" t="n">
         <v>11.7</v>
       </c>
-      <c r="J151" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5418,22 +5081,23 @@
         <v>21058.4608</v>
       </c>
       <c r="G152" t="n">
-        <v>-383676.5044999999</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="I152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5455,26 +5119,23 @@
         <v>24600</v>
       </c>
       <c r="G153" t="n">
-        <v>-408276.5044999999</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="I153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5496,26 +5157,23 @@
         <v>1682.1374</v>
       </c>
       <c r="G154" t="n">
-        <v>-408276.5044999999</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I154" t="n">
         <v>11.7</v>
       </c>
-      <c r="J154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5537,22 +5195,23 @@
         <v>157415.4621</v>
       </c>
       <c r="G155" t="n">
-        <v>-250861.0423999999</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I155" t="n">
         <v>11.7</v>
       </c>
-      <c r="J155" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5574,26 +5233,23 @@
         <v>3520</v>
       </c>
       <c r="G156" t="n">
-        <v>-250861.0423999999</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="I156" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J156" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5615,24 +5271,21 @@
         <v>791.4451</v>
       </c>
       <c r="G157" t="n">
-        <v>-250069.5972999998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5654,18 +5307,21 @@
         <v>50000</v>
       </c>
       <c r="G158" t="n">
-        <v>-250069.5972999998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5687,18 +5343,21 @@
         <v>20000</v>
       </c>
       <c r="G159" t="n">
-        <v>-230069.5972999998</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5720,18 +5379,21 @@
         <v>86788.3458</v>
       </c>
       <c r="G160" t="n">
-        <v>-143281.2514999998</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5753,18 +5415,21 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>-143281.2514999998</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5786,18 +5451,21 @@
         <v>20</v>
       </c>
       <c r="G162" t="n">
-        <v>-143281.2514999998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5819,18 +5487,21 @@
         <v>14</v>
       </c>
       <c r="G163" t="n">
-        <v>-143281.2514999998</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5852,18 +5523,21 @@
         <v>3247.7049</v>
       </c>
       <c r="G164" t="n">
-        <v>-143281.2514999998</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5885,18 +5559,21 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-143291.2514999998</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5918,18 +5595,21 @@
         <v>72870.3941</v>
       </c>
       <c r="G166" t="n">
-        <v>-143291.2514999998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5951,18 +5631,21 @@
         <v>18188.3083</v>
       </c>
       <c r="G167" t="n">
-        <v>-143291.2514999998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5984,18 +5667,21 @@
         <v>3453.5809</v>
       </c>
       <c r="G168" t="n">
-        <v>-143291.2514999998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6017,18 +5703,21 @@
         <v>2587.6726</v>
       </c>
       <c r="G169" t="n">
-        <v>-140703.5788999998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6050,18 +5739,21 @@
         <v>53215.6471</v>
       </c>
       <c r="G170" t="n">
-        <v>-193919.2259999998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6083,18 +5775,21 @@
         <v>13350.4581</v>
       </c>
       <c r="G171" t="n">
-        <v>-207269.6840999998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6116,18 +5811,21 @@
         <v>5120</v>
       </c>
       <c r="G172" t="n">
-        <v>-207269.6840999998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6149,18 +5847,21 @@
         <v>245.6111</v>
       </c>
       <c r="G173" t="n">
-        <v>-207515.2951999998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6182,18 +5883,21 @@
         <v>2667.2345</v>
       </c>
       <c r="G174" t="n">
-        <v>-207515.2951999998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6215,18 +5919,21 @@
         <v>30775.7549</v>
       </c>
       <c r="G175" t="n">
-        <v>-176739.5402999998</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6248,18 +5955,21 @@
         <v>4340</v>
       </c>
       <c r="G176" t="n">
-        <v>-176739.5402999998</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6281,18 +5991,21 @@
         <v>1152.2975</v>
       </c>
       <c r="G177" t="n">
-        <v>-175587.2427999999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6314,18 +6027,21 @@
         <v>25997.1234</v>
       </c>
       <c r="G178" t="n">
-        <v>-175587.2427999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6347,18 +6063,21 @@
         <v>11642.3995</v>
       </c>
       <c r="G179" t="n">
-        <v>-187229.6422999999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6380,18 +6099,21 @@
         <v>2772.3995</v>
       </c>
       <c r="G180" t="n">
-        <v>-187229.6422999999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6413,18 +6135,21 @@
         <v>5895.7924</v>
       </c>
       <c r="G181" t="n">
-        <v>-187229.6422999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6446,18 +6171,21 @@
         <v>1694.6818</v>
       </c>
       <c r="G182" t="n">
-        <v>-185534.9604999999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6479,18 +6207,21 @@
         <v>38</v>
       </c>
       <c r="G183" t="n">
-        <v>-185534.9604999999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6512,18 +6243,21 @@
         <v>9600</v>
       </c>
       <c r="G184" t="n">
-        <v>-185534.9604999999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6545,18 +6279,21 @@
         <v>14200</v>
       </c>
       <c r="G185" t="n">
-        <v>-185534.9604999999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6578,18 +6315,21 @@
         <v>826</v>
       </c>
       <c r="G186" t="n">
-        <v>-186360.9604999999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6611,18 +6351,21 @@
         <v>6800</v>
       </c>
       <c r="G187" t="n">
-        <v>-179560.9604999999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6644,18 +6387,21 @@
         <v>73000</v>
       </c>
       <c r="G188" t="n">
-        <v>-179560.9604999999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6677,18 +6423,21 @@
         <v>16400</v>
       </c>
       <c r="G189" t="n">
-        <v>-179560.9604999999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6710,18 +6459,21 @@
         <v>4055.0969</v>
       </c>
       <c r="G190" t="n">
-        <v>-183616.0573999999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6743,18 +6495,21 @@
         <v>4050</v>
       </c>
       <c r="G191" t="n">
-        <v>-183616.0573999999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6776,18 +6531,21 @@
         <v>25596</v>
       </c>
       <c r="G192" t="n">
-        <v>-158020.0573999999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6809,18 +6567,21 @@
         <v>252</v>
       </c>
       <c r="G193" t="n">
-        <v>-158020.0573999999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6842,18 +6603,21 @@
         <v>28200</v>
       </c>
       <c r="G194" t="n">
-        <v>-158020.0573999999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6875,18 +6639,21 @@
         <v>249</v>
       </c>
       <c r="G195" t="n">
-        <v>-158020.0573999999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6908,18 +6675,21 @@
         <v>54315.1284</v>
       </c>
       <c r="G196" t="n">
-        <v>-158020.0573999999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6941,18 +6711,21 @@
         <v>1878.7213</v>
       </c>
       <c r="G197" t="n">
-        <v>-156141.3360999999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
